--- a/2022/SAMSUNG/JUNE/30.06.2022/SAMSUNG Bank Statement June-2022.xlsx
+++ b/2022/SAMSUNG/JUNE/30.06.2022/SAMSUNG Bank Statement June-2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\SAMSUNG\JUNE\30.06.2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\SAMSUNG\June\30.06.2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3471,243 +3471,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="42" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3715,6 +3568,153 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4191,33 +4191,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="402"/>
-      <c r="B1" s="402"/>
-      <c r="C1" s="402"/>
-      <c r="D1" s="402"/>
-      <c r="E1" s="402"/>
-      <c r="F1" s="402"/>
+      <c r="A1" s="411"/>
+      <c r="B1" s="411"/>
+      <c r="C1" s="411"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="403"/>
-      <c r="B2" s="400" t="s">
+      <c r="A2" s="412"/>
+      <c r="B2" s="409" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="400"/>
-      <c r="D2" s="400"/>
-      <c r="E2" s="400"/>
+      <c r="C2" s="409"/>
+      <c r="D2" s="409"/>
+      <c r="E2" s="409"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="403"/>
-      <c r="B3" s="401" t="s">
+      <c r="A3" s="412"/>
+      <c r="B3" s="410" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="401"/>
-      <c r="D3" s="401"/>
-      <c r="E3" s="401"/>
+      <c r="C3" s="410"/>
+      <c r="D3" s="410"/>
+      <c r="E3" s="410"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="403"/>
+      <c r="A4" s="412"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4235,7 +4235,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="403"/>
+      <c r="A5" s="412"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4253,7 +4253,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="403"/>
+      <c r="A6" s="412"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4265,7 +4265,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="403"/>
+      <c r="A7" s="412"/>
       <c r="B7" s="26" t="s">
         <v>40</v>
       </c>
@@ -4284,7 +4284,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="403"/>
+      <c r="A8" s="412"/>
       <c r="B8" s="26" t="s">
         <v>41</v>
       </c>
@@ -4303,7 +4303,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="403"/>
+      <c r="A9" s="412"/>
       <c r="B9" s="26" t="s">
         <v>43</v>
       </c>
@@ -4322,7 +4322,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="403"/>
+      <c r="A10" s="412"/>
       <c r="B10" s="26" t="s">
         <v>44</v>
       </c>
@@ -4341,7 +4341,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="403"/>
+      <c r="A11" s="412"/>
       <c r="B11" s="26" t="s">
         <v>45</v>
       </c>
@@ -4360,7 +4360,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="403"/>
+      <c r="A12" s="412"/>
       <c r="B12" s="26" t="s">
         <v>46</v>
       </c>
@@ -4379,7 +4379,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="403"/>
+      <c r="A13" s="412"/>
       <c r="B13" s="26" t="s">
         <v>47</v>
       </c>
@@ -4398,7 +4398,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="403"/>
+      <c r="A14" s="412"/>
       <c r="B14" s="26" t="s">
         <v>48</v>
       </c>
@@ -4417,7 +4417,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="403"/>
+      <c r="A15" s="412"/>
       <c r="B15" s="26" t="s">
         <v>49</v>
       </c>
@@ -4436,7 +4436,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="403"/>
+      <c r="A16" s="412"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4449,7 +4449,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="403"/>
+      <c r="A17" s="412"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4462,7 +4462,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="403"/>
+      <c r="A18" s="412"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4475,7 +4475,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="403"/>
+      <c r="A19" s="412"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4488,7 +4488,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="403"/>
+      <c r="A20" s="412"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4501,7 +4501,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="403"/>
+      <c r="A21" s="412"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4514,7 +4514,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="403"/>
+      <c r="A22" s="412"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4527,7 +4527,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="403"/>
+      <c r="A23" s="412"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4540,7 +4540,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="403"/>
+      <c r="A24" s="412"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4553,7 +4553,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="403"/>
+      <c r="A25" s="412"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4566,7 +4566,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="403"/>
+      <c r="A26" s="412"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4579,7 +4579,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="403"/>
+      <c r="A27" s="412"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4592,7 +4592,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="403"/>
+      <c r="A28" s="412"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4605,7 +4605,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="403"/>
+      <c r="A29" s="412"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4618,7 +4618,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="403"/>
+      <c r="A30" s="412"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4631,7 +4631,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="403"/>
+      <c r="A31" s="412"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4644,7 +4644,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="403"/>
+      <c r="A32" s="412"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4657,7 +4657,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="403"/>
+      <c r="A33" s="412"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4670,7 +4670,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="403"/>
+      <c r="A34" s="412"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4683,7 +4683,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="403"/>
+      <c r="A35" s="412"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4696,7 +4696,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="403"/>
+      <c r="A36" s="412"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4709,7 +4709,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="403"/>
+      <c r="A37" s="412"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4722,7 +4722,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="403"/>
+      <c r="A38" s="412"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4735,7 +4735,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="403"/>
+      <c r="A39" s="412"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4748,7 +4748,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="403"/>
+      <c r="A40" s="412"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4761,7 +4761,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="403"/>
+      <c r="A41" s="412"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4774,7 +4774,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="403"/>
+      <c r="A42" s="412"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4787,7 +4787,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="403"/>
+      <c r="A43" s="412"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4800,7 +4800,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="403"/>
+      <c r="A44" s="412"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4813,7 +4813,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="403"/>
+      <c r="A45" s="412"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4826,7 +4826,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="403"/>
+      <c r="A46" s="412"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4839,7 +4839,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="403"/>
+      <c r="A47" s="412"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4852,7 +4852,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="403"/>
+      <c r="A48" s="412"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4865,7 +4865,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="403"/>
+      <c r="A49" s="412"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4878,7 +4878,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="403"/>
+      <c r="A50" s="412"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4891,7 +4891,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="403"/>
+      <c r="A51" s="412"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4904,7 +4904,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="403"/>
+      <c r="A52" s="412"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4917,7 +4917,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="403"/>
+      <c r="A53" s="412"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4930,7 +4930,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="403"/>
+      <c r="A54" s="412"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4943,7 +4943,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="403"/>
+      <c r="A55" s="412"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4955,7 +4955,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="403"/>
+      <c r="A56" s="412"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4967,7 +4967,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="403"/>
+      <c r="A57" s="412"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4979,7 +4979,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="403"/>
+      <c r="A58" s="412"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4991,7 +4991,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="403"/>
+      <c r="A59" s="412"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -5003,7 +5003,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="403"/>
+      <c r="A60" s="412"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -5015,7 +5015,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="403"/>
+      <c r="A61" s="412"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -5027,7 +5027,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="403"/>
+      <c r="A62" s="412"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -5039,7 +5039,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="403"/>
+      <c r="A63" s="412"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -5051,7 +5051,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="403"/>
+      <c r="A64" s="412"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -5063,7 +5063,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="403"/>
+      <c r="A65" s="412"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -5075,7 +5075,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="403"/>
+      <c r="A66" s="412"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -5087,7 +5087,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="403"/>
+      <c r="A67" s="412"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -5099,7 +5099,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="403"/>
+      <c r="A68" s="412"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -5111,7 +5111,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="403"/>
+      <c r="A69" s="412"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -5123,7 +5123,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="403"/>
+      <c r="A70" s="412"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -5135,7 +5135,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="403"/>
+      <c r="A71" s="412"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -5147,7 +5147,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="403"/>
+      <c r="A72" s="412"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -5159,7 +5159,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="403"/>
+      <c r="A73" s="412"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -5171,7 +5171,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="403"/>
+      <c r="A74" s="412"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5183,7 +5183,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="403"/>
+      <c r="A75" s="412"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5195,7 +5195,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="403"/>
+      <c r="A76" s="412"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5207,7 +5207,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="403"/>
+      <c r="A77" s="412"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5219,7 +5219,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="403"/>
+      <c r="A78" s="412"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5231,7 +5231,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="403"/>
+      <c r="A79" s="412"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5243,7 +5243,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="403"/>
+      <c r="A80" s="412"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5255,7 +5255,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="403"/>
+      <c r="A81" s="412"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5267,7 +5267,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="403"/>
+      <c r="A82" s="412"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5279,7 +5279,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="403"/>
+      <c r="A83" s="412"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5336,33 +5336,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A1" s="402"/>
-      <c r="B1" s="402"/>
-      <c r="C1" s="402"/>
-      <c r="D1" s="402"/>
-      <c r="E1" s="402"/>
-      <c r="F1" s="402"/>
+      <c r="A1" s="411"/>
+      <c r="B1" s="411"/>
+      <c r="C1" s="411"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="403"/>
-      <c r="B2" s="400" t="s">
+      <c r="A2" s="412"/>
+      <c r="B2" s="409" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="400"/>
-      <c r="D2" s="400"/>
-      <c r="E2" s="400"/>
+      <c r="C2" s="409"/>
+      <c r="D2" s="409"/>
+      <c r="E2" s="409"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A3" s="403"/>
-      <c r="B3" s="401" t="s">
+      <c r="A3" s="412"/>
+      <c r="B3" s="410" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="401"/>
-      <c r="D3" s="401"/>
-      <c r="E3" s="401"/>
+      <c r="C3" s="410"/>
+      <c r="D3" s="410"/>
+      <c r="E3" s="410"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="403"/>
+      <c r="A4" s="412"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5380,7 +5380,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="403"/>
+      <c r="A5" s="412"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5398,7 +5398,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="403"/>
+      <c r="A6" s="412"/>
       <c r="B6" s="26"/>
       <c r="C6" s="237"/>
       <c r="D6" s="237"/>
@@ -5410,7 +5410,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="403"/>
+      <c r="A7" s="412"/>
       <c r="B7" s="26" t="s">
         <v>162</v>
       </c>
@@ -5430,7 +5430,7 @@
       <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="403"/>
+      <c r="A8" s="412"/>
       <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
@@ -5450,7 +5450,7 @@
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="403"/>
+      <c r="A9" s="412"/>
       <c r="B9" s="26" t="s">
         <v>168</v>
       </c>
@@ -5470,7 +5470,7 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="403"/>
+      <c r="A10" s="412"/>
       <c r="B10" s="26" t="s">
         <v>171</v>
       </c>
@@ -5490,7 +5490,7 @@
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="403"/>
+      <c r="A11" s="412"/>
       <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
@@ -5510,7 +5510,7 @@
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="403"/>
+      <c r="A12" s="412"/>
       <c r="B12" s="26" t="s">
         <v>174</v>
       </c>
@@ -5530,7 +5530,7 @@
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="403"/>
+      <c r="A13" s="412"/>
       <c r="B13" s="26" t="s">
         <v>175</v>
       </c>
@@ -5550,7 +5550,7 @@
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="403"/>
+      <c r="A14" s="412"/>
       <c r="B14" s="26" t="s">
         <v>176</v>
       </c>
@@ -5570,7 +5570,7 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="403"/>
+      <c r="A15" s="412"/>
       <c r="B15" s="26" t="s">
         <v>177</v>
       </c>
@@ -5590,7 +5590,7 @@
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="403"/>
+      <c r="A16" s="412"/>
       <c r="B16" s="26" t="s">
         <v>180</v>
       </c>
@@ -5610,7 +5610,7 @@
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="403"/>
+      <c r="A17" s="412"/>
       <c r="B17" s="26" t="s">
         <v>181</v>
       </c>
@@ -5630,7 +5630,7 @@
       <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="403"/>
+      <c r="A18" s="412"/>
       <c r="B18" s="26" t="s">
         <v>184</v>
       </c>
@@ -5650,7 +5650,7 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A19" s="403"/>
+      <c r="A19" s="412"/>
       <c r="B19" s="26" t="s">
         <v>184</v>
       </c>
@@ -5670,7 +5670,7 @@
       <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="403"/>
+      <c r="A20" s="412"/>
       <c r="B20" s="26" t="s">
         <v>188</v>
       </c>
@@ -5690,7 +5690,7 @@
       <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="403"/>
+      <c r="A21" s="412"/>
       <c r="B21" s="26" t="s">
         <v>190</v>
       </c>
@@ -5710,7 +5710,7 @@
       <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="403"/>
+      <c r="A22" s="412"/>
       <c r="B22" s="26" t="s">
         <v>191</v>
       </c>
@@ -5730,7 +5730,7 @@
       <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="403"/>
+      <c r="A23" s="412"/>
       <c r="B23" s="26" t="s">
         <v>193</v>
       </c>
@@ -5750,7 +5750,7 @@
       <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="403"/>
+      <c r="A24" s="412"/>
       <c r="B24" s="26" t="s">
         <v>195</v>
       </c>
@@ -5770,7 +5770,7 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="403"/>
+      <c r="A25" s="412"/>
       <c r="B25" s="26" t="s">
         <v>198</v>
       </c>
@@ -5790,7 +5790,7 @@
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="403"/>
+      <c r="A26" s="412"/>
       <c r="B26" s="26" t="s">
         <v>199</v>
       </c>
@@ -5810,7 +5810,7 @@
       <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="403"/>
+      <c r="A27" s="412"/>
       <c r="B27" s="26" t="s">
         <v>200</v>
       </c>
@@ -5830,7 +5830,7 @@
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="403"/>
+      <c r="A28" s="412"/>
       <c r="B28" s="26" t="s">
         <v>201</v>
       </c>
@@ -5850,7 +5850,7 @@
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="403"/>
+      <c r="A29" s="412"/>
       <c r="B29" s="26" t="s">
         <v>206</v>
       </c>
@@ -5870,7 +5870,7 @@
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="403"/>
+      <c r="A30" s="412"/>
       <c r="B30" s="26" t="s">
         <v>219</v>
       </c>
@@ -5890,7 +5890,7 @@
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="403"/>
+      <c r="A31" s="412"/>
       <c r="B31" s="26" t="s">
         <v>220</v>
       </c>
@@ -5910,7 +5910,7 @@
       <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="403"/>
+      <c r="A32" s="412"/>
       <c r="B32" s="26" t="s">
         <v>224</v>
       </c>
@@ -5930,7 +5930,7 @@
       <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="403"/>
+      <c r="A33" s="412"/>
       <c r="B33" s="26"/>
       <c r="C33" s="237"/>
       <c r="D33" s="239"/>
@@ -5944,7 +5944,7 @@
       <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="403"/>
+      <c r="A34" s="412"/>
       <c r="B34" s="26"/>
       <c r="C34" s="237"/>
       <c r="D34" s="237"/>
@@ -5958,7 +5958,7 @@
       <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="403"/>
+      <c r="A35" s="412"/>
       <c r="B35" s="26"/>
       <c r="C35" s="237"/>
       <c r="D35" s="237"/>
@@ -5972,7 +5972,7 @@
       <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="403"/>
+      <c r="A36" s="412"/>
       <c r="B36" s="26"/>
       <c r="C36" s="237"/>
       <c r="D36" s="237"/>
@@ -5986,7 +5986,7 @@
       <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="403"/>
+      <c r="A37" s="412"/>
       <c r="B37" s="26"/>
       <c r="C37" s="237"/>
       <c r="D37" s="237"/>
@@ -6000,7 +6000,7 @@
       <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="403"/>
+      <c r="A38" s="412"/>
       <c r="B38" s="26"/>
       <c r="C38" s="237"/>
       <c r="D38" s="237"/>
@@ -6014,7 +6014,7 @@
       <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="403"/>
+      <c r="A39" s="412"/>
       <c r="B39" s="26"/>
       <c r="C39" s="237"/>
       <c r="D39" s="237"/>
@@ -6028,7 +6028,7 @@
       <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="403"/>
+      <c r="A40" s="412"/>
       <c r="B40" s="26"/>
       <c r="C40" s="237"/>
       <c r="D40" s="237"/>
@@ -6042,7 +6042,7 @@
       <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="403"/>
+      <c r="A41" s="412"/>
       <c r="B41" s="26"/>
       <c r="C41" s="237"/>
       <c r="D41" s="237"/>
@@ -6056,7 +6056,7 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="403"/>
+      <c r="A42" s="412"/>
       <c r="B42" s="26"/>
       <c r="C42" s="237"/>
       <c r="D42" s="237"/>
@@ -6070,7 +6070,7 @@
       <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="403"/>
+      <c r="A43" s="412"/>
       <c r="B43" s="26"/>
       <c r="C43" s="237"/>
       <c r="D43" s="237"/>
@@ -6084,7 +6084,7 @@
       <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="403"/>
+      <c r="A44" s="412"/>
       <c r="B44" s="26"/>
       <c r="C44" s="237"/>
       <c r="D44" s="237"/>
@@ -6098,7 +6098,7 @@
       <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="403"/>
+      <c r="A45" s="412"/>
       <c r="B45" s="26"/>
       <c r="C45" s="237"/>
       <c r="D45" s="237"/>
@@ -6112,7 +6112,7 @@
       <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="403"/>
+      <c r="A46" s="412"/>
       <c r="B46" s="26"/>
       <c r="C46" s="237"/>
       <c r="D46" s="237"/>
@@ -6126,7 +6126,7 @@
       <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="403"/>
+      <c r="A47" s="412"/>
       <c r="B47" s="26"/>
       <c r="C47" s="237"/>
       <c r="D47" s="237"/>
@@ -6140,7 +6140,7 @@
       <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="403"/>
+      <c r="A48" s="412"/>
       <c r="B48" s="26"/>
       <c r="C48" s="237"/>
       <c r="D48" s="237"/>
@@ -6154,7 +6154,7 @@
       <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="403"/>
+      <c r="A49" s="412"/>
       <c r="B49" s="26"/>
       <c r="C49" s="237"/>
       <c r="D49" s="237"/>
@@ -6168,7 +6168,7 @@
       <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="403"/>
+      <c r="A50" s="412"/>
       <c r="B50" s="26"/>
       <c r="C50" s="237"/>
       <c r="D50" s="237"/>
@@ -6182,7 +6182,7 @@
       <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="403"/>
+      <c r="A51" s="412"/>
       <c r="B51" s="26"/>
       <c r="C51" s="237"/>
       <c r="D51" s="237"/>
@@ -6196,7 +6196,7 @@
       <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="403"/>
+      <c r="A52" s="412"/>
       <c r="B52" s="26"/>
       <c r="C52" s="237"/>
       <c r="D52" s="237"/>
@@ -6210,7 +6210,7 @@
       <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="403"/>
+      <c r="A53" s="412"/>
       <c r="B53" s="26"/>
       <c r="C53" s="237"/>
       <c r="D53" s="237"/>
@@ -6224,7 +6224,7 @@
       <c r="I53" s="21"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="403"/>
+      <c r="A54" s="412"/>
       <c r="B54" s="26"/>
       <c r="C54" s="237"/>
       <c r="D54" s="237"/>
@@ -6238,7 +6238,7 @@
       <c r="I54" s="21"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="403"/>
+      <c r="A55" s="412"/>
       <c r="B55" s="26"/>
       <c r="C55" s="237"/>
       <c r="D55" s="237"/>
@@ -6252,7 +6252,7 @@
       <c r="I55" s="21"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="403"/>
+      <c r="A56" s="412"/>
       <c r="B56" s="26"/>
       <c r="C56" s="237"/>
       <c r="D56" s="237"/>
@@ -6266,7 +6266,7 @@
       <c r="I56" s="21"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="403"/>
+      <c r="A57" s="412"/>
       <c r="B57" s="26"/>
       <c r="C57" s="237"/>
       <c r="D57" s="237"/>
@@ -6277,7 +6277,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="403"/>
+      <c r="A58" s="412"/>
       <c r="B58" s="26"/>
       <c r="C58" s="237"/>
       <c r="D58" s="237"/>
@@ -6288,7 +6288,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="403"/>
+      <c r="A59" s="412"/>
       <c r="B59" s="26"/>
       <c r="C59" s="237"/>
       <c r="D59" s="237"/>
@@ -6299,7 +6299,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="403"/>
+      <c r="A60" s="412"/>
       <c r="B60" s="26"/>
       <c r="C60" s="237"/>
       <c r="D60" s="237"/>
@@ -6310,7 +6310,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="403"/>
+      <c r="A61" s="412"/>
       <c r="B61" s="26"/>
       <c r="C61" s="237"/>
       <c r="D61" s="237"/>
@@ -6321,7 +6321,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="403"/>
+      <c r="A62" s="412"/>
       <c r="B62" s="26"/>
       <c r="C62" s="237"/>
       <c r="D62" s="237"/>
@@ -6332,7 +6332,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="403"/>
+      <c r="A63" s="412"/>
       <c r="B63" s="26"/>
       <c r="C63" s="237"/>
       <c r="D63" s="237"/>
@@ -6343,7 +6343,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="403"/>
+      <c r="A64" s="412"/>
       <c r="B64" s="26"/>
       <c r="C64" s="237"/>
       <c r="D64" s="237"/>
@@ -6354,7 +6354,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="403"/>
+      <c r="A65" s="412"/>
       <c r="B65" s="26"/>
       <c r="C65" s="237"/>
       <c r="D65" s="237"/>
@@ -6365,7 +6365,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="403"/>
+      <c r="A66" s="412"/>
       <c r="B66" s="26"/>
       <c r="C66" s="237"/>
       <c r="D66" s="237"/>
@@ -6376,7 +6376,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="403"/>
+      <c r="A67" s="412"/>
       <c r="B67" s="26"/>
       <c r="C67" s="237"/>
       <c r="D67" s="237"/>
@@ -6387,7 +6387,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="403"/>
+      <c r="A68" s="412"/>
       <c r="B68" s="26"/>
       <c r="C68" s="237"/>
       <c r="D68" s="237"/>
@@ -6398,7 +6398,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="403"/>
+      <c r="A69" s="412"/>
       <c r="B69" s="26"/>
       <c r="C69" s="237"/>
       <c r="D69" s="237"/>
@@ -6409,7 +6409,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="403"/>
+      <c r="A70" s="412"/>
       <c r="B70" s="26"/>
       <c r="C70" s="237"/>
       <c r="D70" s="237"/>
@@ -6420,7 +6420,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="403"/>
+      <c r="A71" s="412"/>
       <c r="B71" s="26"/>
       <c r="C71" s="237"/>
       <c r="D71" s="237"/>
@@ -6431,7 +6431,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="403"/>
+      <c r="A72" s="412"/>
       <c r="B72" s="26"/>
       <c r="C72" s="237"/>
       <c r="D72" s="237"/>
@@ -6442,7 +6442,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="403"/>
+      <c r="A73" s="412"/>
       <c r="B73" s="26"/>
       <c r="C73" s="237"/>
       <c r="D73" s="237"/>
@@ -6453,7 +6453,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="403"/>
+      <c r="A74" s="412"/>
       <c r="B74" s="26"/>
       <c r="C74" s="237"/>
       <c r="D74" s="237"/>
@@ -6464,7 +6464,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="403"/>
+      <c r="A75" s="412"/>
       <c r="B75" s="26"/>
       <c r="C75" s="237"/>
       <c r="D75" s="237"/>
@@ -6475,7 +6475,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="403"/>
+      <c r="A76" s="412"/>
       <c r="B76" s="26"/>
       <c r="C76" s="237"/>
       <c r="D76" s="237"/>
@@ -6486,7 +6486,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="403"/>
+      <c r="A77" s="412"/>
       <c r="B77" s="26"/>
       <c r="C77" s="237"/>
       <c r="D77" s="237"/>
@@ -6497,7 +6497,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="403"/>
+      <c r="A78" s="412"/>
       <c r="B78" s="26"/>
       <c r="C78" s="237"/>
       <c r="D78" s="237"/>
@@ -6508,7 +6508,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="403"/>
+      <c r="A79" s="412"/>
       <c r="B79" s="26"/>
       <c r="C79" s="237"/>
       <c r="D79" s="237"/>
@@ -6520,7 +6520,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="403"/>
+      <c r="A80" s="412"/>
       <c r="B80" s="26"/>
       <c r="C80" s="237"/>
       <c r="D80" s="237"/>
@@ -6532,7 +6532,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="403"/>
+      <c r="A81" s="412"/>
       <c r="B81" s="26"/>
       <c r="C81" s="237"/>
       <c r="D81" s="237"/>
@@ -6544,7 +6544,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="403"/>
+      <c r="A82" s="412"/>
       <c r="B82" s="26"/>
       <c r="C82" s="237"/>
       <c r="D82" s="237"/>
@@ -6556,7 +6556,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="403"/>
+      <c r="A83" s="412"/>
       <c r="B83" s="31"/>
       <c r="C83" s="238">
         <f>SUM(C5:C72)</f>
@@ -6619,67 +6619,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="408" t="s">
+      <c r="A1" s="413" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="408"/>
-      <c r="C1" s="408"/>
-      <c r="D1" s="408"/>
-      <c r="E1" s="408"/>
-      <c r="F1" s="408"/>
-      <c r="G1" s="408"/>
-      <c r="H1" s="408"/>
-      <c r="I1" s="408"/>
-      <c r="J1" s="408"/>
-      <c r="K1" s="408"/>
-      <c r="L1" s="408"/>
-      <c r="M1" s="408"/>
-      <c r="N1" s="408"/>
-      <c r="O1" s="408"/>
-      <c r="P1" s="408"/>
-      <c r="Q1" s="408"/>
+      <c r="B1" s="413"/>
+      <c r="C1" s="413"/>
+      <c r="D1" s="413"/>
+      <c r="E1" s="413"/>
+      <c r="F1" s="413"/>
+      <c r="G1" s="413"/>
+      <c r="H1" s="413"/>
+      <c r="I1" s="413"/>
+      <c r="J1" s="413"/>
+      <c r="K1" s="413"/>
+      <c r="L1" s="413"/>
+      <c r="M1" s="413"/>
+      <c r="N1" s="413"/>
+      <c r="O1" s="413"/>
+      <c r="P1" s="413"/>
+      <c r="Q1" s="413"/>
     </row>
     <row r="2" spans="1:24" s="61" customFormat="1" ht="18">
-      <c r="A2" s="409" t="s">
+      <c r="A2" s="414" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="409"/>
-      <c r="C2" s="409"/>
-      <c r="D2" s="409"/>
-      <c r="E2" s="409"/>
-      <c r="F2" s="409"/>
-      <c r="G2" s="409"/>
-      <c r="H2" s="409"/>
-      <c r="I2" s="409"/>
-      <c r="J2" s="409"/>
-      <c r="K2" s="409"/>
-      <c r="L2" s="409"/>
-      <c r="M2" s="409"/>
-      <c r="N2" s="409"/>
-      <c r="O2" s="409"/>
-      <c r="P2" s="409"/>
-      <c r="Q2" s="409"/>
+      <c r="B2" s="414"/>
+      <c r="C2" s="414"/>
+      <c r="D2" s="414"/>
+      <c r="E2" s="414"/>
+      <c r="F2" s="414"/>
+      <c r="G2" s="414"/>
+      <c r="H2" s="414"/>
+      <c r="I2" s="414"/>
+      <c r="J2" s="414"/>
+      <c r="K2" s="414"/>
+      <c r="L2" s="414"/>
+      <c r="M2" s="414"/>
+      <c r="N2" s="414"/>
+      <c r="O2" s="414"/>
+      <c r="P2" s="414"/>
+      <c r="Q2" s="414"/>
     </row>
     <row r="3" spans="1:24" s="62" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="410" t="s">
+      <c r="A3" s="415" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="411"/>
-      <c r="C3" s="411"/>
-      <c r="D3" s="411"/>
-      <c r="E3" s="411"/>
-      <c r="F3" s="411"/>
-      <c r="G3" s="411"/>
-      <c r="H3" s="411"/>
-      <c r="I3" s="411"/>
-      <c r="J3" s="411"/>
-      <c r="K3" s="411"/>
-      <c r="L3" s="411"/>
-      <c r="M3" s="411"/>
-      <c r="N3" s="411"/>
-      <c r="O3" s="411"/>
-      <c r="P3" s="411"/>
-      <c r="Q3" s="412"/>
+      <c r="B3" s="416"/>
+      <c r="C3" s="416"/>
+      <c r="D3" s="416"/>
+      <c r="E3" s="416"/>
+      <c r="F3" s="416"/>
+      <c r="G3" s="416"/>
+      <c r="H3" s="416"/>
+      <c r="I3" s="416"/>
+      <c r="J3" s="416"/>
+      <c r="K3" s="416"/>
+      <c r="L3" s="416"/>
+      <c r="M3" s="416"/>
+      <c r="N3" s="416"/>
+      <c r="O3" s="416"/>
+      <c r="P3" s="416"/>
+      <c r="Q3" s="417"/>
       <c r="S3" s="46"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6688,52 +6688,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="63" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="413" t="s">
+      <c r="A4" s="418" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="415" t="s">
+      <c r="B4" s="420" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="404" t="s">
+      <c r="C4" s="422" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="404" t="s">
+      <c r="D4" s="422" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="404" t="s">
+      <c r="E4" s="422" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="404" t="s">
+      <c r="F4" s="422" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="404" t="s">
+      <c r="G4" s="422" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="404" t="s">
+      <c r="H4" s="422" t="s">
         <v>187</v>
       </c>
-      <c r="I4" s="404" t="s">
+      <c r="I4" s="422" t="s">
         <v>186</v>
       </c>
-      <c r="J4" s="404" t="s">
+      <c r="J4" s="422" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="404" t="s">
+      <c r="K4" s="422" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="404" t="s">
+      <c r="L4" s="422" t="s">
         <v>114</v>
       </c>
-      <c r="M4" s="404" t="s">
+      <c r="M4" s="422" t="s">
         <v>207</v>
       </c>
-      <c r="N4" s="404" t="s">
+      <c r="N4" s="422" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="406" t="s">
+      <c r="O4" s="426" t="s">
         <v>124</v>
       </c>
-      <c r="P4" s="417" t="s">
+      <c r="P4" s="424" t="s">
         <v>147</v>
       </c>
       <c r="Q4" s="118" t="s">
@@ -6746,22 +6746,22 @@
       <c r="W4" s="65"/>
     </row>
     <row r="5" spans="1:24" s="63" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="414"/>
-      <c r="B5" s="416"/>
-      <c r="C5" s="405"/>
-      <c r="D5" s="405"/>
-      <c r="E5" s="405"/>
-      <c r="F5" s="405"/>
-      <c r="G5" s="405"/>
-      <c r="H5" s="405"/>
-      <c r="I5" s="405"/>
-      <c r="J5" s="405"/>
-      <c r="K5" s="405"/>
-      <c r="L5" s="405"/>
-      <c r="M5" s="405"/>
-      <c r="N5" s="405"/>
-      <c r="O5" s="407"/>
-      <c r="P5" s="418"/>
+      <c r="A5" s="419"/>
+      <c r="B5" s="421"/>
+      <c r="C5" s="423"/>
+      <c r="D5" s="423"/>
+      <c r="E5" s="423"/>
+      <c r="F5" s="423"/>
+      <c r="G5" s="423"/>
+      <c r="H5" s="423"/>
+      <c r="I5" s="423"/>
+      <c r="J5" s="423"/>
+      <c r="K5" s="423"/>
+      <c r="L5" s="423"/>
+      <c r="M5" s="423"/>
+      <c r="N5" s="423"/>
+      <c r="O5" s="427"/>
+      <c r="P5" s="425"/>
       <c r="Q5" s="119" t="s">
         <v>36</v>
       </c>
@@ -9925,6 +9925,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9941,9 +9944,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9984,15 +9984,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="424" t="s">
+      <c r="A1" s="433" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="424"/>
-      <c r="C1" s="424"/>
-      <c r="D1" s="424"/>
-      <c r="E1" s="424"/>
-      <c r="F1" s="424"/>
-      <c r="G1" s="424"/>
+      <c r="B1" s="433"/>
+      <c r="C1" s="433"/>
+      <c r="D1" s="433"/>
+      <c r="E1" s="433"/>
+      <c r="F1" s="433"/>
+      <c r="G1" s="433"/>
       <c r="H1" s="56"/>
       <c r="I1" s="135"/>
       <c r="J1" s="135"/>
@@ -10085,15 +10085,15 @@
       <c r="CS1" s="130"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="425" t="s">
+      <c r="A2" s="434" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="425"/>
-      <c r="C2" s="425"/>
-      <c r="D2" s="425"/>
-      <c r="E2" s="425"/>
-      <c r="F2" s="425"/>
-      <c r="G2" s="425"/>
+      <c r="B2" s="434"/>
+      <c r="C2" s="434"/>
+      <c r="D2" s="434"/>
+      <c r="E2" s="434"/>
+      <c r="F2" s="434"/>
+      <c r="G2" s="434"/>
       <c r="H2" s="56"/>
       <c r="I2" s="135"/>
       <c r="J2" s="135"/>
@@ -10186,15 +10186,15 @@
       <c r="CS2" s="130"/>
     </row>
     <row r="3" spans="1:97">
-      <c r="A3" s="426" t="s">
+      <c r="A3" s="435" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="426"/>
-      <c r="C3" s="426"/>
-      <c r="D3" s="426"/>
-      <c r="E3" s="426"/>
-      <c r="F3" s="426"/>
-      <c r="G3" s="426"/>
+      <c r="B3" s="435"/>
+      <c r="C3" s="435"/>
+      <c r="D3" s="435"/>
+      <c r="E3" s="435"/>
+      <c r="F3" s="435"/>
+      <c r="G3" s="435"/>
       <c r="H3" s="56"/>
       <c r="I3" s="135"/>
       <c r="J3" s="135"/>
@@ -13680,12 +13680,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="125"/>
-      <c r="B35" s="421" t="s">
+      <c r="B35" s="430" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="421"/>
-      <c r="D35" s="421"/>
-      <c r="E35" s="421"/>
+      <c r="C35" s="430"/>
+      <c r="D35" s="430"/>
+      <c r="E35" s="430"/>
       <c r="F35" s="126"/>
       <c r="G35" s="131"/>
       <c r="H35" s="131"/>
@@ -14546,10 +14546,10 @@
       <c r="D43" s="198"/>
       <c r="E43" s="168"/>
       <c r="F43" s="126"/>
-      <c r="G43" s="422"/>
-      <c r="H43" s="422"/>
-      <c r="I43" s="422"/>
-      <c r="J43" s="422"/>
+      <c r="G43" s="431"/>
+      <c r="H43" s="431"/>
+      <c r="I43" s="431"/>
+      <c r="J43" s="431"/>
       <c r="K43" s="56"/>
       <c r="L43" s="135"/>
       <c r="M43" s="56"/>
@@ -22667,11 +22667,11 @@
       <c r="CS118" s="130"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="419" t="s">
+      <c r="A119" s="428" t="s">
         <v>25</v>
       </c>
-      <c r="B119" s="420"/>
-      <c r="C119" s="423"/>
+      <c r="B119" s="429"/>
+      <c r="C119" s="432"/>
       <c r="D119" s="202">
         <f>SUM(D37:D118)</f>
         <v>2782200</v>
@@ -22876,11 +22876,11 @@
       <c r="CS120" s="130"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="419" t="s">
+      <c r="A121" s="428" t="s">
         <v>26</v>
       </c>
-      <c r="B121" s="420"/>
-      <c r="C121" s="420"/>
+      <c r="B121" s="429"/>
+      <c r="C121" s="429"/>
       <c r="D121" s="202">
         <f>D119+M121</f>
         <v>2782200</v>
@@ -34117,435 +34117,435 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="467"/>
-    <col min="5" max="5" width="2.85546875" style="467" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="467" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="467" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="467" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="467" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="467" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.5703125" style="467" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="467"/>
+    <col min="1" max="4" width="9.140625" style="400"/>
+    <col min="5" max="5" width="2.85546875" style="400" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="400" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" style="400" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="400" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="400" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="400" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.5703125" style="400" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="400"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:10" ht="15.75" thickBot="1"/>
     <row r="2" spans="6:10" ht="25.5">
-      <c r="F2" s="485" t="s">
+      <c r="F2" s="436" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="486"/>
-      <c r="J2" s="487"/>
+      <c r="G2" s="437"/>
+      <c r="H2" s="437"/>
+      <c r="I2" s="437"/>
+      <c r="J2" s="438"/>
     </row>
     <row r="3" spans="6:10" ht="18">
-      <c r="F3" s="474" t="s">
+      <c r="F3" s="439" t="s">
         <v>232</v>
       </c>
-      <c r="G3" s="475"/>
-      <c r="H3" s="475"/>
-      <c r="I3" s="475"/>
-      <c r="J3" s="476"/>
+      <c r="G3" s="440"/>
+      <c r="H3" s="440"/>
+      <c r="I3" s="440"/>
+      <c r="J3" s="441"/>
     </row>
     <row r="4" spans="6:10" ht="18">
-      <c r="F4" s="474" t="s">
+      <c r="F4" s="439" t="s">
         <v>233</v>
       </c>
-      <c r="G4" s="475"/>
-      <c r="H4" s="475"/>
-      <c r="I4" s="475"/>
-      <c r="J4" s="476"/>
+      <c r="G4" s="440"/>
+      <c r="H4" s="440"/>
+      <c r="I4" s="440"/>
+      <c r="J4" s="441"/>
     </row>
     <row r="5" spans="6:10" ht="4.5" customHeight="1">
-      <c r="F5" s="468"/>
-      <c r="G5" s="469"/>
-      <c r="H5" s="469"/>
-      <c r="I5" s="469"/>
-      <c r="J5" s="470"/>
+      <c r="F5" s="442"/>
+      <c r="G5" s="443"/>
+      <c r="H5" s="443"/>
+      <c r="I5" s="443"/>
+      <c r="J5" s="444"/>
     </row>
     <row r="6" spans="6:10" ht="15.75">
-      <c r="F6" s="482" t="s">
+      <c r="F6" s="406" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="483" t="s">
+      <c r="G6" s="407" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="483" t="s">
+      <c r="H6" s="407" t="s">
         <v>231</v>
       </c>
-      <c r="I6" s="483" t="s">
+      <c r="I6" s="407" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="484" t="s">
+      <c r="J6" s="408" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="6:10">
-      <c r="F7" s="471" t="s">
+      <c r="F7" s="401" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="472" t="s">
+      <c r="G7" s="402" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="472">
+      <c r="H7" s="402">
         <v>1785319898</v>
       </c>
-      <c r="I7" s="472">
+      <c r="I7" s="402">
         <v>150770</v>
       </c>
-      <c r="J7" s="473" t="s">
+      <c r="J7" s="403" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="8" spans="6:10">
-      <c r="F8" s="471" t="s">
+      <c r="F8" s="401" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="472" t="s">
+      <c r="G8" s="402" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="472">
+      <c r="H8" s="402">
         <v>1717424852</v>
       </c>
-      <c r="I8" s="472">
+      <c r="I8" s="402">
         <v>50000</v>
       </c>
-      <c r="J8" s="473" t="s">
+      <c r="J8" s="403" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9" spans="6:10">
-      <c r="F9" s="471" t="s">
+      <c r="F9" s="401" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="472" t="s">
+      <c r="G9" s="402" t="s">
         <v>135</v>
       </c>
-      <c r="H9" s="472">
+      <c r="H9" s="402">
         <v>1737495544</v>
       </c>
-      <c r="I9" s="472">
+      <c r="I9" s="402">
         <v>94000</v>
       </c>
-      <c r="J9" s="473" t="s">
+      <c r="J9" s="403" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="10" spans="6:10">
-      <c r="F10" s="471" t="s">
+      <c r="F10" s="401" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="472" t="s">
+      <c r="G10" s="402" t="s">
         <v>118</v>
       </c>
-      <c r="H10" s="472">
+      <c r="H10" s="402">
         <v>1748971798</v>
       </c>
-      <c r="I10" s="472">
+      <c r="I10" s="402">
         <v>100000</v>
       </c>
-      <c r="J10" s="473" t="s">
+      <c r="J10" s="403" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="11" spans="6:10">
-      <c r="F11" s="471" t="s">
+      <c r="F11" s="401" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="472" t="s">
+      <c r="G11" s="402" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="472">
+      <c r="H11" s="402">
         <v>1746164599</v>
       </c>
-      <c r="I11" s="472">
+      <c r="I11" s="402">
         <v>234890</v>
       </c>
-      <c r="J11" s="473" t="s">
+      <c r="J11" s="403" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="12" spans="6:10">
-      <c r="F12" s="471" t="s">
+      <c r="F12" s="401" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="472" t="s">
+      <c r="G12" s="402" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="472">
+      <c r="H12" s="402">
         <v>1732469191</v>
       </c>
-      <c r="I12" s="472">
+      <c r="I12" s="402">
         <v>20760</v>
       </c>
-      <c r="J12" s="473" t="s">
+      <c r="J12" s="403" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="13" spans="6:10">
-      <c r="F13" s="471" t="s">
+      <c r="F13" s="401" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="472" t="s">
+      <c r="G13" s="402" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="472">
+      <c r="H13" s="402">
         <v>1717436223</v>
       </c>
-      <c r="I13" s="472">
+      <c r="I13" s="402">
         <v>170000</v>
       </c>
-      <c r="J13" s="473" t="s">
+      <c r="J13" s="403" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="14" spans="6:10">
-      <c r="F14" s="471" t="s">
+      <c r="F14" s="401" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="472" t="s">
+      <c r="G14" s="402" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="472">
+      <c r="H14" s="402">
         <v>1713763313</v>
       </c>
-      <c r="I14" s="472">
+      <c r="I14" s="402">
         <v>174340</v>
       </c>
-      <c r="J14" s="473" t="s">
+      <c r="J14" s="403" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="15" spans="6:10">
-      <c r="F15" s="471" t="s">
+      <c r="F15" s="401" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="472" t="s">
+      <c r="G15" s="402" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="472">
+      <c r="H15" s="402">
         <v>1718911905</v>
       </c>
-      <c r="I15" s="472">
+      <c r="I15" s="402">
         <v>325190</v>
       </c>
-      <c r="J15" s="473" t="s">
+      <c r="J15" s="403" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="16" spans="6:10">
-      <c r="F16" s="471" t="s">
+      <c r="F16" s="401" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="472" t="s">
+      <c r="G16" s="402" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="472">
+      <c r="H16" s="402">
         <v>1737356298</v>
       </c>
-      <c r="I16" s="472">
+      <c r="I16" s="402">
         <v>344190</v>
       </c>
-      <c r="J16" s="473" t="s">
+      <c r="J16" s="403" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="17" spans="6:10">
-      <c r="F17" s="471" t="s">
+      <c r="F17" s="401" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="472" t="s">
+      <c r="G17" s="402" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="472">
+      <c r="H17" s="402">
         <v>1725821212</v>
       </c>
-      <c r="I17" s="472">
+      <c r="I17" s="402">
         <v>54230</v>
       </c>
-      <c r="J17" s="473" t="s">
+      <c r="J17" s="403" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="18" spans="6:10">
-      <c r="F18" s="471" t="s">
+      <c r="F18" s="401" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="472" t="s">
+      <c r="G18" s="402" t="s">
         <v>113</v>
       </c>
-      <c r="H18" s="472">
+      <c r="H18" s="402">
         <v>1716697790</v>
       </c>
-      <c r="I18" s="472">
+      <c r="I18" s="402">
         <v>259380</v>
       </c>
-      <c r="J18" s="473" t="s">
+      <c r="J18" s="403" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="19" spans="6:10">
-      <c r="F19" s="471" t="s">
+      <c r="F19" s="401" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="472" t="s">
+      <c r="G19" s="402" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="472">
+      <c r="H19" s="402">
         <v>1716697790</v>
       </c>
-      <c r="I19" s="472">
+      <c r="I19" s="402">
         <v>221230</v>
       </c>
-      <c r="J19" s="473" t="s">
+      <c r="J19" s="403" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="20" spans="6:10">
-      <c r="F20" s="471" t="s">
+      <c r="F20" s="401" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="472" t="s">
+      <c r="G20" s="402" t="s">
         <v>179</v>
       </c>
-      <c r="H20" s="472">
+      <c r="H20" s="402">
         <v>1743942020</v>
       </c>
-      <c r="I20" s="472">
+      <c r="I20" s="402">
         <v>30180</v>
       </c>
-      <c r="J20" s="473" t="s">
+      <c r="J20" s="403" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="21" spans="6:10">
-      <c r="F21" s="471" t="s">
+      <c r="F21" s="401" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="472" t="s">
+      <c r="G21" s="402" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="472">
+      <c r="H21" s="402">
         <v>1713585965</v>
       </c>
-      <c r="I21" s="472">
+      <c r="I21" s="402">
         <v>50000</v>
       </c>
-      <c r="J21" s="473" t="s">
+      <c r="J21" s="403" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="22" spans="6:10">
-      <c r="F22" s="471" t="s">
+      <c r="F22" s="401" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="472" t="s">
+      <c r="G22" s="402" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="472">
+      <c r="H22" s="402">
         <v>1719461935</v>
       </c>
-      <c r="I22" s="472">
+      <c r="I22" s="402">
         <v>200820</v>
       </c>
-      <c r="J22" s="473" t="s">
+      <c r="J22" s="403" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="23" spans="6:10">
-      <c r="F23" s="471" t="s">
+      <c r="F23" s="401" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="472" t="s">
+      <c r="G23" s="402" t="s">
         <v>87</v>
       </c>
-      <c r="H23" s="472">
+      <c r="H23" s="402">
         <v>1713703375</v>
       </c>
-      <c r="I23" s="472">
+      <c r="I23" s="402">
         <v>35000</v>
       </c>
-      <c r="J23" s="473" t="s">
+      <c r="J23" s="403" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="24" spans="6:10">
-      <c r="F24" s="471" t="s">
+      <c r="F24" s="401" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="472" t="s">
+      <c r="G24" s="402" t="s">
         <v>103</v>
       </c>
-      <c r="H24" s="472">
+      <c r="H24" s="402">
         <v>1729190349</v>
       </c>
-      <c r="I24" s="472">
+      <c r="I24" s="402">
         <v>200000</v>
       </c>
-      <c r="J24" s="473" t="s">
+      <c r="J24" s="403" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="25" spans="6:10">
-      <c r="F25" s="471" t="s">
+      <c r="F25" s="401" t="s">
         <v>226</v>
       </c>
-      <c r="G25" s="472" t="s">
+      <c r="G25" s="402" t="s">
         <v>227</v>
       </c>
-      <c r="H25" s="472">
+      <c r="H25" s="402">
         <v>1724826360</v>
       </c>
-      <c r="I25" s="472">
+      <c r="I25" s="402">
         <v>17000</v>
       </c>
-      <c r="J25" s="473" t="s">
+      <c r="J25" s="403" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="26" spans="6:10">
-      <c r="F26" s="471" t="s">
+      <c r="F26" s="401" t="s">
         <v>228</v>
       </c>
-      <c r="G26" s="472" t="s">
+      <c r="G26" s="402" t="s">
         <v>235</v>
       </c>
-      <c r="H26" s="472">
+      <c r="H26" s="402">
         <v>1713377956</v>
       </c>
-      <c r="I26" s="472">
+      <c r="I26" s="402">
         <v>44100</v>
       </c>
-      <c r="J26" s="473" t="s">
+      <c r="J26" s="403" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="27" spans="6:10">
-      <c r="F27" s="471" t="s">
+      <c r="F27" s="401" t="s">
         <v>226</v>
       </c>
-      <c r="G27" s="472" t="s">
+      <c r="G27" s="402" t="s">
         <v>230</v>
       </c>
-      <c r="H27" s="472"/>
-      <c r="I27" s="472">
+      <c r="H27" s="402"/>
+      <c r="I27" s="402">
         <v>6120</v>
       </c>
-      <c r="J27" s="473" t="s">
+      <c r="J27" s="403" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="28" spans="6:10" ht="18.75" thickBot="1">
-      <c r="F28" s="477" t="s">
+      <c r="F28" s="445" t="s">
         <v>234</v>
       </c>
-      <c r="G28" s="478"/>
-      <c r="H28" s="479"/>
-      <c r="I28" s="480">
+      <c r="G28" s="446"/>
+      <c r="H28" s="447"/>
+      <c r="I28" s="404">
         <f>SUM(I7:I27)</f>
         <v>2782200</v>
       </c>
-      <c r="J28" s="481"/>
+      <c r="J28" s="405"/>
     </row>
   </sheetData>
   <sortState ref="F6:J33">
@@ -34570,8 +34570,8 @@
   </sheetPr>
   <dimension ref="A1:R217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B15"/>
+    <sheetView tabSelected="1" topLeftCell="C20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34594,28 +34594,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="440" t="s">
+      <c r="A1" s="451" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="441"/>
-      <c r="C1" s="441"/>
-      <c r="D1" s="441"/>
-      <c r="E1" s="442"/>
+      <c r="B1" s="452"/>
+      <c r="C1" s="452"/>
+      <c r="D1" s="452"/>
+      <c r="E1" s="453"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="439"/>
-      <c r="J1" s="439"/>
-      <c r="K1" s="439"/>
+      <c r="I1" s="450"/>
+      <c r="J1" s="450"/>
+      <c r="K1" s="450"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="449" t="s">
+      <c r="A2" s="460" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="450"/>
-      <c r="C2" s="450"/>
-      <c r="D2" s="450"/>
-      <c r="E2" s="451"/>
+      <c r="B2" s="461"/>
+      <c r="C2" s="461"/>
+      <c r="D2" s="461"/>
+      <c r="E2" s="462"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -34636,13 +34636,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="443" t="s">
+      <c r="A3" s="454" t="s">
         <v>225</v>
       </c>
-      <c r="B3" s="444"/>
-      <c r="C3" s="444"/>
-      <c r="D3" s="444"/>
-      <c r="E3" s="445"/>
+      <c r="B3" s="455"/>
+      <c r="C3" s="455"/>
+      <c r="D3" s="455"/>
+      <c r="E3" s="456"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -34669,13 +34669,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="452" t="s">
+      <c r="A4" s="463" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="453"/>
-      <c r="C4" s="453"/>
-      <c r="D4" s="453"/>
-      <c r="E4" s="454"/>
+      <c r="B4" s="464"/>
+      <c r="C4" s="464"/>
+      <c r="D4" s="464"/>
+      <c r="E4" s="465"/>
       <c r="F4" s="5"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
@@ -35166,11 +35166,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="302"/>
-      <c r="I17" s="430" t="s">
+      <c r="I17" s="448" t="s">
         <v>159</v>
       </c>
-      <c r="J17" s="430"/>
-      <c r="K17" s="430"/>
+      <c r="J17" s="448"/>
+      <c r="K17" s="448"/>
       <c r="L17" s="347">
         <f>SUM(L3:L16)</f>
         <v>311650</v>
@@ -35193,11 +35193,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="302"/>
-      <c r="I18" s="455" t="s">
+      <c r="I18" s="466" t="s">
         <v>106</v>
       </c>
-      <c r="J18" s="455"/>
-      <c r="K18" s="455"/>
+      <c r="J18" s="466"/>
+      <c r="K18" s="466"/>
       <c r="L18" s="31">
         <v>54000</v>
       </c>
@@ -35209,21 +35209,21 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="446" t="s">
+      <c r="A19" s="457" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="447"/>
-      <c r="C19" s="447"/>
-      <c r="D19" s="447"/>
-      <c r="E19" s="448"/>
+      <c r="B19" s="458"/>
+      <c r="C19" s="458"/>
+      <c r="D19" s="458"/>
+      <c r="E19" s="459"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="438" t="s">
+      <c r="I19" s="449" t="s">
         <v>217</v>
       </c>
-      <c r="J19" s="438"/>
-      <c r="K19" s="438"/>
+      <c r="J19" s="449"/>
+      <c r="K19" s="449"/>
       <c r="L19" s="31">
         <v>20000</v>
       </c>
@@ -35251,11 +35251,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="437" t="s">
+      <c r="I20" s="467" t="s">
         <v>164</v>
       </c>
-      <c r="J20" s="437"/>
-      <c r="K20" s="437"/>
+      <c r="J20" s="467"/>
+      <c r="K20" s="467"/>
       <c r="L20" s="31">
         <v>19500</v>
       </c>
@@ -35282,11 +35282,11 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="456" t="s">
+      <c r="I21" s="468" t="s">
         <v>216</v>
       </c>
-      <c r="J21" s="457"/>
-      <c r="K21" s="458"/>
+      <c r="J21" s="469"/>
+      <c r="K21" s="470"/>
       <c r="L21" s="31">
         <v>30000</v>
       </c>
@@ -35311,11 +35311,11 @@
       <c r="E22" s="261">
         <v>344190</v>
       </c>
-      <c r="I22" s="456" t="s">
+      <c r="I22" s="468" t="s">
         <v>222</v>
       </c>
-      <c r="J22" s="457"/>
-      <c r="K22" s="458"/>
+      <c r="J22" s="469"/>
+      <c r="K22" s="470"/>
       <c r="L22" s="396">
         <v>20000</v>
       </c>
@@ -35340,11 +35340,11 @@
       <c r="E23" s="261">
         <v>54230</v>
       </c>
-      <c r="I23" s="430" t="s">
+      <c r="I23" s="448" t="s">
         <v>223</v>
       </c>
-      <c r="J23" s="430"/>
-      <c r="K23" s="430"/>
+      <c r="J23" s="448"/>
+      <c r="K23" s="448"/>
       <c r="L23" s="347">
         <f>L17-L18-L19-L20-L21-L22</f>
         <v>168150</v>
@@ -35414,13 +35414,13 @@
       <c r="E26" s="261">
         <v>30180</v>
       </c>
-      <c r="I26" s="431" t="s">
+      <c r="I26" s="474" t="s">
         <v>196</v>
       </c>
-      <c r="J26" s="432"/>
-      <c r="K26" s="432"/>
-      <c r="L26" s="432"/>
-      <c r="M26" s="433"/>
+      <c r="J26" s="475"/>
+      <c r="K26" s="475"/>
+      <c r="L26" s="475"/>
+      <c r="M26" s="476"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -35441,11 +35441,11 @@
       <c r="E27" s="330">
         <v>17000</v>
       </c>
-      <c r="I27" s="434" t="s">
+      <c r="I27" s="477" t="s">
         <v>148</v>
       </c>
-      <c r="J27" s="434"/>
-      <c r="K27" s="435"/>
+      <c r="J27" s="477"/>
+      <c r="K27" s="478"/>
       <c r="L27" s="372">
         <v>213170</v>
       </c>
@@ -35470,11 +35470,11 @@
       <c r="E28" s="268">
         <v>150770</v>
       </c>
-      <c r="I28" s="436" t="s">
+      <c r="I28" s="479" t="s">
         <v>197</v>
       </c>
-      <c r="J28" s="437"/>
-      <c r="K28" s="437"/>
+      <c r="J28" s="467"/>
+      <c r="K28" s="467"/>
       <c r="L28" s="371">
         <v>79500</v>
       </c>
@@ -35501,11 +35501,11 @@
       <c r="E29" s="268">
         <v>50000</v>
       </c>
-      <c r="I29" s="436" t="s">
+      <c r="I29" s="479" t="s">
         <v>197</v>
       </c>
-      <c r="J29" s="437"/>
-      <c r="K29" s="437"/>
+      <c r="J29" s="467"/>
+      <c r="K29" s="467"/>
       <c r="L29" s="374">
         <v>47500</v>
       </c>
@@ -35528,11 +35528,11 @@
       <c r="C30" s="344"/>
       <c r="D30" s="345"/>
       <c r="E30" s="346"/>
-      <c r="I30" s="436" t="s">
+      <c r="I30" s="479" t="s">
         <v>197</v>
       </c>
-      <c r="J30" s="437"/>
-      <c r="K30" s="437"/>
+      <c r="J30" s="467"/>
+      <c r="K30" s="467"/>
       <c r="L30" s="375">
         <v>50000</v>
       </c>
@@ -35550,9 +35550,9 @@
       <c r="B31" s="33"/>
       <c r="C31" s="5"/>
       <c r="D31" s="32"/>
-      <c r="I31" s="427"/>
-      <c r="J31" s="428"/>
-      <c r="K31" s="429"/>
+      <c r="I31" s="471"/>
+      <c r="J31" s="472"/>
+      <c r="K31" s="473"/>
       <c r="L31" s="371"/>
       <c r="M31" s="371"/>
       <c r="N31" s="7"/>
@@ -35562,11 +35562,11 @@
       <c r="R31" s="7"/>
     </row>
     <row r="32" spans="1:18" ht="15.75">
-      <c r="I32" s="430" t="s">
+      <c r="I32" s="448" t="s">
         <v>107</v>
       </c>
-      <c r="J32" s="430"/>
-      <c r="K32" s="430"/>
+      <c r="J32" s="448"/>
+      <c r="K32" s="448"/>
       <c r="L32" s="370">
         <f>L27-L28-L29-L30-L31</f>
         <v>36170</v>
@@ -38296,6 +38296,13 @@
     <sortCondition ref="D20"/>
   </sortState>
   <mergeCells count="20">
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="I1:K1"/>
@@ -38309,13 +38316,6 @@
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.94488188976377963" bottom="0" header="0" footer="0"/>
@@ -38349,10 +38349,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" thickBot="1">
-      <c r="A1" s="459" t="s">
+      <c r="A1" s="480" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="460"/>
+      <c r="B1" s="481"/>
       <c r="C1" s="270">
         <f>G10+C73</f>
         <v>99915</v>
@@ -38398,11 +38398,11 @@
       <c r="H3" s="384" t="s">
         <v>184</v>
       </c>
-      <c r="J3" s="463" t="s">
+      <c r="J3" s="484" t="s">
         <v>212</v>
       </c>
-      <c r="K3" s="463"/>
-      <c r="L3" s="463"/>
+      <c r="K3" s="484"/>
+      <c r="L3" s="484"/>
     </row>
     <row r="4" spans="1:12" ht="15">
       <c r="A4" s="24" t="s">
@@ -38730,11 +38730,11 @@
         <v>0</v>
       </c>
       <c r="E15" s="61"/>
-      <c r="F15" s="466" t="s">
+      <c r="F15" s="487" t="s">
         <v>221</v>
       </c>
-      <c r="G15" s="466"/>
-      <c r="H15" s="466"/>
+      <c r="G15" s="487"/>
+      <c r="H15" s="487"/>
       <c r="J15" s="353" t="s">
         <v>166</v>
       </c>
@@ -38941,10 +38941,10 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A23" s="464" t="s">
+      <c r="A23" s="485" t="s">
         <v>213</v>
       </c>
-      <c r="B23" s="465"/>
+      <c r="B23" s="486"/>
       <c r="C23" s="387">
         <f>SUM(C4:C22)</f>
         <v>64900</v>
@@ -39454,10 +39454,10 @@
       <c r="E72" s="322"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="461" t="s">
+      <c r="A73" s="482" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="462"/>
+      <c r="B73" s="483"/>
       <c r="C73" s="300">
         <f>SUM(C25:C72)</f>
         <v>37350</v>

--- a/2022/SAMSUNG/JUNE/30.06.2022/SAMSUNG Bank Statement June-2022.xlsx
+++ b/2022/SAMSUNG/JUNE/30.06.2022/SAMSUNG Bank Statement June-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Sheet2" sheetId="21" r:id="rId5"/>
     <sheet name="CAPITAL" sheetId="10" r:id="rId6"/>
     <sheet name="May'22 Promo+CB" sheetId="19" r:id="rId7"/>
-    <sheet name="Extra Due" sheetId="20" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="22" r:id="rId8"/>
+    <sheet name="Extra Due" sheetId="20" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -111,7 +112,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>sound box</t>
         </r>
@@ -147,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="250">
   <si>
     <t>Date</t>
   </si>
@@ -862,6 +863,42 @@
   <si>
     <t>T.M Shamim</t>
   </si>
+  <si>
+    <t>SO Rasel Nagad Disbusment</t>
+  </si>
+  <si>
+    <t>June Promo &amp; CashBack Disbusment Calculation</t>
+  </si>
+  <si>
+    <t>07.08.2022</t>
+  </si>
+  <si>
+    <t>08.08.2022</t>
+  </si>
+  <si>
+    <t>09.08.2022</t>
+  </si>
+  <si>
+    <t>10.08.2022</t>
+  </si>
+  <si>
+    <t>11.08.2022</t>
+  </si>
+  <si>
+    <t>15.08.2022</t>
+  </si>
+  <si>
+    <t>Munna &amp; Sojol  Disbusment</t>
+  </si>
+  <si>
+    <t>Total  Disbusment =</t>
+  </si>
+  <si>
+    <t>Comapany Given</t>
+  </si>
+  <si>
+    <t>GAP</t>
+  </si>
 </sst>
 </file>
 
@@ -870,7 +907,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="50">
+  <fonts count="49">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1176,13 +1213,6 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="20"/>
@@ -2322,7 +2352,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="488">
+  <cellXfs count="513">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3480,6 +3510,15 @@
     <xf numFmtId="0" fontId="11" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3492,6 +3531,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3519,24 +3570,12 @@
     <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3561,13 +3600,13 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3597,9 +3636,39 @@
     <xf numFmtId="0" fontId="40" fillId="42" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3654,9 +3723,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3666,33 +3732,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3716,6 +3755,70 @@
     </xf>
     <xf numFmtId="0" fontId="46" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="47" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="47" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="47" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="47" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -4191,33 +4294,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="411"/>
-      <c r="B1" s="411"/>
-      <c r="C1" s="411"/>
-      <c r="D1" s="411"/>
-      <c r="E1" s="411"/>
-      <c r="F1" s="411"/>
+      <c r="A1" s="414"/>
+      <c r="B1" s="414"/>
+      <c r="C1" s="414"/>
+      <c r="D1" s="414"/>
+      <c r="E1" s="414"/>
+      <c r="F1" s="414"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="412"/>
-      <c r="B2" s="409" t="s">
+      <c r="A2" s="415"/>
+      <c r="B2" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="409"/>
-      <c r="D2" s="409"/>
-      <c r="E2" s="409"/>
+      <c r="C2" s="412"/>
+      <c r="D2" s="412"/>
+      <c r="E2" s="412"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="412"/>
-      <c r="B3" s="410" t="s">
+      <c r="A3" s="415"/>
+      <c r="B3" s="413" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="410"/>
-      <c r="D3" s="410"/>
-      <c r="E3" s="410"/>
+      <c r="C3" s="413"/>
+      <c r="D3" s="413"/>
+      <c r="E3" s="413"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="412"/>
+      <c r="A4" s="415"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4235,7 +4338,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="412"/>
+      <c r="A5" s="415"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4253,7 +4356,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="412"/>
+      <c r="A6" s="415"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4265,7 +4368,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="412"/>
+      <c r="A7" s="415"/>
       <c r="B7" s="26" t="s">
         <v>40</v>
       </c>
@@ -4284,7 +4387,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="412"/>
+      <c r="A8" s="415"/>
       <c r="B8" s="26" t="s">
         <v>41</v>
       </c>
@@ -4303,7 +4406,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="412"/>
+      <c r="A9" s="415"/>
       <c r="B9" s="26" t="s">
         <v>43</v>
       </c>
@@ -4322,7 +4425,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="412"/>
+      <c r="A10" s="415"/>
       <c r="B10" s="26" t="s">
         <v>44</v>
       </c>
@@ -4341,7 +4444,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="412"/>
+      <c r="A11" s="415"/>
       <c r="B11" s="26" t="s">
         <v>45</v>
       </c>
@@ -4360,7 +4463,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="412"/>
+      <c r="A12" s="415"/>
       <c r="B12" s="26" t="s">
         <v>46</v>
       </c>
@@ -4379,7 +4482,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="412"/>
+      <c r="A13" s="415"/>
       <c r="B13" s="26" t="s">
         <v>47</v>
       </c>
@@ -4398,7 +4501,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="412"/>
+      <c r="A14" s="415"/>
       <c r="B14" s="26" t="s">
         <v>48</v>
       </c>
@@ -4417,7 +4520,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="412"/>
+      <c r="A15" s="415"/>
       <c r="B15" s="26" t="s">
         <v>49</v>
       </c>
@@ -4436,7 +4539,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="412"/>
+      <c r="A16" s="415"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4449,7 +4552,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="412"/>
+      <c r="A17" s="415"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4462,7 +4565,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="412"/>
+      <c r="A18" s="415"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4475,7 +4578,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="412"/>
+      <c r="A19" s="415"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4488,7 +4591,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="412"/>
+      <c r="A20" s="415"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4501,7 +4604,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="412"/>
+      <c r="A21" s="415"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4514,7 +4617,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="412"/>
+      <c r="A22" s="415"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4527,7 +4630,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="412"/>
+      <c r="A23" s="415"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4540,7 +4643,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="412"/>
+      <c r="A24" s="415"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4553,7 +4656,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="412"/>
+      <c r="A25" s="415"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4566,7 +4669,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="412"/>
+      <c r="A26" s="415"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4579,7 +4682,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="412"/>
+      <c r="A27" s="415"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4592,7 +4695,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="412"/>
+      <c r="A28" s="415"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4605,7 +4708,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="412"/>
+      <c r="A29" s="415"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4618,7 +4721,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="412"/>
+      <c r="A30" s="415"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4631,7 +4734,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="412"/>
+      <c r="A31" s="415"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4644,7 +4747,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="412"/>
+      <c r="A32" s="415"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4657,7 +4760,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="412"/>
+      <c r="A33" s="415"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4670,7 +4773,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="412"/>
+      <c r="A34" s="415"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4683,7 +4786,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="412"/>
+      <c r="A35" s="415"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4696,7 +4799,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="412"/>
+      <c r="A36" s="415"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4709,7 +4812,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="412"/>
+      <c r="A37" s="415"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4722,7 +4825,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="412"/>
+      <c r="A38" s="415"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4735,7 +4838,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="412"/>
+      <c r="A39" s="415"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4748,7 +4851,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="412"/>
+      <c r="A40" s="415"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4761,7 +4864,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="412"/>
+      <c r="A41" s="415"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4774,7 +4877,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="412"/>
+      <c r="A42" s="415"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4787,7 +4890,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="412"/>
+      <c r="A43" s="415"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4800,7 +4903,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="412"/>
+      <c r="A44" s="415"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4813,7 +4916,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="412"/>
+      <c r="A45" s="415"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4826,7 +4929,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="412"/>
+      <c r="A46" s="415"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4839,7 +4942,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="412"/>
+      <c r="A47" s="415"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4852,7 +4955,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="412"/>
+      <c r="A48" s="415"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4865,7 +4968,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="412"/>
+      <c r="A49" s="415"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4878,7 +4981,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="412"/>
+      <c r="A50" s="415"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4891,7 +4994,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="412"/>
+      <c r="A51" s="415"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4904,7 +5007,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="412"/>
+      <c r="A52" s="415"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4917,7 +5020,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="412"/>
+      <c r="A53" s="415"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4930,7 +5033,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="412"/>
+      <c r="A54" s="415"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4943,7 +5046,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="412"/>
+      <c r="A55" s="415"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4955,7 +5058,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="412"/>
+      <c r="A56" s="415"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4967,7 +5070,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="412"/>
+      <c r="A57" s="415"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4979,7 +5082,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="412"/>
+      <c r="A58" s="415"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4991,7 +5094,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="412"/>
+      <c r="A59" s="415"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -5003,7 +5106,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="412"/>
+      <c r="A60" s="415"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -5015,7 +5118,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="412"/>
+      <c r="A61" s="415"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -5027,7 +5130,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="412"/>
+      <c r="A62" s="415"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -5039,7 +5142,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="412"/>
+      <c r="A63" s="415"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -5051,7 +5154,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="412"/>
+      <c r="A64" s="415"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -5063,7 +5166,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="412"/>
+      <c r="A65" s="415"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -5075,7 +5178,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="412"/>
+      <c r="A66" s="415"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -5087,7 +5190,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="412"/>
+      <c r="A67" s="415"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -5099,7 +5202,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="412"/>
+      <c r="A68" s="415"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -5111,7 +5214,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="412"/>
+      <c r="A69" s="415"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -5123,7 +5226,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="412"/>
+      <c r="A70" s="415"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -5135,7 +5238,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="412"/>
+      <c r="A71" s="415"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -5147,7 +5250,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="412"/>
+      <c r="A72" s="415"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -5159,7 +5262,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="412"/>
+      <c r="A73" s="415"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -5171,7 +5274,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="412"/>
+      <c r="A74" s="415"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5183,7 +5286,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="412"/>
+      <c r="A75" s="415"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5195,7 +5298,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="412"/>
+      <c r="A76" s="415"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5207,7 +5310,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="412"/>
+      <c r="A77" s="415"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5219,7 +5322,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="412"/>
+      <c r="A78" s="415"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5231,7 +5334,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="412"/>
+      <c r="A79" s="415"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5243,7 +5346,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="412"/>
+      <c r="A80" s="415"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5255,7 +5358,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="412"/>
+      <c r="A81" s="415"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5267,7 +5370,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="412"/>
+      <c r="A82" s="415"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5279,7 +5382,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="412"/>
+      <c r="A83" s="415"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5336,33 +5439,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A1" s="411"/>
-      <c r="B1" s="411"/>
-      <c r="C1" s="411"/>
-      <c r="D1" s="411"/>
-      <c r="E1" s="411"/>
-      <c r="F1" s="411"/>
+      <c r="A1" s="414"/>
+      <c r="B1" s="414"/>
+      <c r="C1" s="414"/>
+      <c r="D1" s="414"/>
+      <c r="E1" s="414"/>
+      <c r="F1" s="414"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="412"/>
-      <c r="B2" s="409" t="s">
+      <c r="A2" s="415"/>
+      <c r="B2" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="409"/>
-      <c r="D2" s="409"/>
-      <c r="E2" s="409"/>
+      <c r="C2" s="412"/>
+      <c r="D2" s="412"/>
+      <c r="E2" s="412"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A3" s="412"/>
-      <c r="B3" s="410" t="s">
+      <c r="A3" s="415"/>
+      <c r="B3" s="413" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="410"/>
-      <c r="D3" s="410"/>
-      <c r="E3" s="410"/>
+      <c r="C3" s="413"/>
+      <c r="D3" s="413"/>
+      <c r="E3" s="413"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="412"/>
+      <c r="A4" s="415"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5380,7 +5483,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="412"/>
+      <c r="A5" s="415"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5398,7 +5501,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="412"/>
+      <c r="A6" s="415"/>
       <c r="B6" s="26"/>
       <c r="C6" s="237"/>
       <c r="D6" s="237"/>
@@ -5410,7 +5513,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="412"/>
+      <c r="A7" s="415"/>
       <c r="B7" s="26" t="s">
         <v>162</v>
       </c>
@@ -5430,7 +5533,7 @@
       <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="412"/>
+      <c r="A8" s="415"/>
       <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
@@ -5450,7 +5553,7 @@
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="412"/>
+      <c r="A9" s="415"/>
       <c r="B9" s="26" t="s">
         <v>168</v>
       </c>
@@ -5470,7 +5573,7 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="412"/>
+      <c r="A10" s="415"/>
       <c r="B10" s="26" t="s">
         <v>171</v>
       </c>
@@ -5490,7 +5593,7 @@
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="412"/>
+      <c r="A11" s="415"/>
       <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
@@ -5510,7 +5613,7 @@
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="412"/>
+      <c r="A12" s="415"/>
       <c r="B12" s="26" t="s">
         <v>174</v>
       </c>
@@ -5530,7 +5633,7 @@
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="412"/>
+      <c r="A13" s="415"/>
       <c r="B13" s="26" t="s">
         <v>175</v>
       </c>
@@ -5550,7 +5653,7 @@
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="412"/>
+      <c r="A14" s="415"/>
       <c r="B14" s="26" t="s">
         <v>176</v>
       </c>
@@ -5570,7 +5673,7 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="412"/>
+      <c r="A15" s="415"/>
       <c r="B15" s="26" t="s">
         <v>177</v>
       </c>
@@ -5590,7 +5693,7 @@
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="412"/>
+      <c r="A16" s="415"/>
       <c r="B16" s="26" t="s">
         <v>180</v>
       </c>
@@ -5610,7 +5713,7 @@
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="412"/>
+      <c r="A17" s="415"/>
       <c r="B17" s="26" t="s">
         <v>181</v>
       </c>
@@ -5630,7 +5733,7 @@
       <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="412"/>
+      <c r="A18" s="415"/>
       <c r="B18" s="26" t="s">
         <v>184</v>
       </c>
@@ -5650,7 +5753,7 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A19" s="412"/>
+      <c r="A19" s="415"/>
       <c r="B19" s="26" t="s">
         <v>184</v>
       </c>
@@ -5670,7 +5773,7 @@
       <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="412"/>
+      <c r="A20" s="415"/>
       <c r="B20" s="26" t="s">
         <v>188</v>
       </c>
@@ -5690,7 +5793,7 @@
       <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="412"/>
+      <c r="A21" s="415"/>
       <c r="B21" s="26" t="s">
         <v>190</v>
       </c>
@@ -5710,7 +5813,7 @@
       <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="412"/>
+      <c r="A22" s="415"/>
       <c r="B22" s="26" t="s">
         <v>191</v>
       </c>
@@ -5730,7 +5833,7 @@
       <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="412"/>
+      <c r="A23" s="415"/>
       <c r="B23" s="26" t="s">
         <v>193</v>
       </c>
@@ -5750,7 +5853,7 @@
       <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="412"/>
+      <c r="A24" s="415"/>
       <c r="B24" s="26" t="s">
         <v>195</v>
       </c>
@@ -5770,7 +5873,7 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="412"/>
+      <c r="A25" s="415"/>
       <c r="B25" s="26" t="s">
         <v>198</v>
       </c>
@@ -5790,7 +5893,7 @@
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="412"/>
+      <c r="A26" s="415"/>
       <c r="B26" s="26" t="s">
         <v>199</v>
       </c>
@@ -5810,7 +5913,7 @@
       <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="412"/>
+      <c r="A27" s="415"/>
       <c r="B27" s="26" t="s">
         <v>200</v>
       </c>
@@ -5830,7 +5933,7 @@
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="412"/>
+      <c r="A28" s="415"/>
       <c r="B28" s="26" t="s">
         <v>201</v>
       </c>
@@ -5850,7 +5953,7 @@
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="412"/>
+      <c r="A29" s="415"/>
       <c r="B29" s="26" t="s">
         <v>206</v>
       </c>
@@ -5870,7 +5973,7 @@
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="412"/>
+      <c r="A30" s="415"/>
       <c r="B30" s="26" t="s">
         <v>219</v>
       </c>
@@ -5890,7 +5993,7 @@
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="412"/>
+      <c r="A31" s="415"/>
       <c r="B31" s="26" t="s">
         <v>220</v>
       </c>
@@ -5910,7 +6013,7 @@
       <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="412"/>
+      <c r="A32" s="415"/>
       <c r="B32" s="26" t="s">
         <v>224</v>
       </c>
@@ -5930,7 +6033,7 @@
       <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="412"/>
+      <c r="A33" s="415"/>
       <c r="B33" s="26"/>
       <c r="C33" s="237"/>
       <c r="D33" s="239"/>
@@ -5944,7 +6047,7 @@
       <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="412"/>
+      <c r="A34" s="415"/>
       <c r="B34" s="26"/>
       <c r="C34" s="237"/>
       <c r="D34" s="237"/>
@@ -5958,7 +6061,7 @@
       <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="412"/>
+      <c r="A35" s="415"/>
       <c r="B35" s="26"/>
       <c r="C35" s="237"/>
       <c r="D35" s="237"/>
@@ -5972,7 +6075,7 @@
       <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="412"/>
+      <c r="A36" s="415"/>
       <c r="B36" s="26"/>
       <c r="C36" s="237"/>
       <c r="D36" s="237"/>
@@ -5986,7 +6089,7 @@
       <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="412"/>
+      <c r="A37" s="415"/>
       <c r="B37" s="26"/>
       <c r="C37" s="237"/>
       <c r="D37" s="237"/>
@@ -6000,7 +6103,7 @@
       <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="412"/>
+      <c r="A38" s="415"/>
       <c r="B38" s="26"/>
       <c r="C38" s="237"/>
       <c r="D38" s="237"/>
@@ -6014,7 +6117,7 @@
       <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="412"/>
+      <c r="A39" s="415"/>
       <c r="B39" s="26"/>
       <c r="C39" s="237"/>
       <c r="D39" s="237"/>
@@ -6028,7 +6131,7 @@
       <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="412"/>
+      <c r="A40" s="415"/>
       <c r="B40" s="26"/>
       <c r="C40" s="237"/>
       <c r="D40" s="237"/>
@@ -6042,7 +6145,7 @@
       <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="412"/>
+      <c r="A41" s="415"/>
       <c r="B41" s="26"/>
       <c r="C41" s="237"/>
       <c r="D41" s="237"/>
@@ -6056,7 +6159,7 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="412"/>
+      <c r="A42" s="415"/>
       <c r="B42" s="26"/>
       <c r="C42" s="237"/>
       <c r="D42" s="237"/>
@@ -6070,7 +6173,7 @@
       <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="412"/>
+      <c r="A43" s="415"/>
       <c r="B43" s="26"/>
       <c r="C43" s="237"/>
       <c r="D43" s="237"/>
@@ -6084,7 +6187,7 @@
       <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="412"/>
+      <c r="A44" s="415"/>
       <c r="B44" s="26"/>
       <c r="C44" s="237"/>
       <c r="D44" s="237"/>
@@ -6098,7 +6201,7 @@
       <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="412"/>
+      <c r="A45" s="415"/>
       <c r="B45" s="26"/>
       <c r="C45" s="237"/>
       <c r="D45" s="237"/>
@@ -6112,7 +6215,7 @@
       <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="412"/>
+      <c r="A46" s="415"/>
       <c r="B46" s="26"/>
       <c r="C46" s="237"/>
       <c r="D46" s="237"/>
@@ -6126,7 +6229,7 @@
       <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="412"/>
+      <c r="A47" s="415"/>
       <c r="B47" s="26"/>
       <c r="C47" s="237"/>
       <c r="D47" s="237"/>
@@ -6140,7 +6243,7 @@
       <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="412"/>
+      <c r="A48" s="415"/>
       <c r="B48" s="26"/>
       <c r="C48" s="237"/>
       <c r="D48" s="237"/>
@@ -6154,7 +6257,7 @@
       <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="412"/>
+      <c r="A49" s="415"/>
       <c r="B49" s="26"/>
       <c r="C49" s="237"/>
       <c r="D49" s="237"/>
@@ -6168,7 +6271,7 @@
       <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="412"/>
+      <c r="A50" s="415"/>
       <c r="B50" s="26"/>
       <c r="C50" s="237"/>
       <c r="D50" s="237"/>
@@ -6182,7 +6285,7 @@
       <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="412"/>
+      <c r="A51" s="415"/>
       <c r="B51" s="26"/>
       <c r="C51" s="237"/>
       <c r="D51" s="237"/>
@@ -6196,7 +6299,7 @@
       <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="412"/>
+      <c r="A52" s="415"/>
       <c r="B52" s="26"/>
       <c r="C52" s="237"/>
       <c r="D52" s="237"/>
@@ -6210,7 +6313,7 @@
       <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="412"/>
+      <c r="A53" s="415"/>
       <c r="B53" s="26"/>
       <c r="C53" s="237"/>
       <c r="D53" s="237"/>
@@ -6224,7 +6327,7 @@
       <c r="I53" s="21"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="412"/>
+      <c r="A54" s="415"/>
       <c r="B54" s="26"/>
       <c r="C54" s="237"/>
       <c r="D54" s="237"/>
@@ -6238,7 +6341,7 @@
       <c r="I54" s="21"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="412"/>
+      <c r="A55" s="415"/>
       <c r="B55" s="26"/>
       <c r="C55" s="237"/>
       <c r="D55" s="237"/>
@@ -6252,7 +6355,7 @@
       <c r="I55" s="21"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="412"/>
+      <c r="A56" s="415"/>
       <c r="B56" s="26"/>
       <c r="C56" s="237"/>
       <c r="D56" s="237"/>
@@ -6266,7 +6369,7 @@
       <c r="I56" s="21"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="412"/>
+      <c r="A57" s="415"/>
       <c r="B57" s="26"/>
       <c r="C57" s="237"/>
       <c r="D57" s="237"/>
@@ -6277,7 +6380,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="412"/>
+      <c r="A58" s="415"/>
       <c r="B58" s="26"/>
       <c r="C58" s="237"/>
       <c r="D58" s="237"/>
@@ -6288,7 +6391,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="412"/>
+      <c r="A59" s="415"/>
       <c r="B59" s="26"/>
       <c r="C59" s="237"/>
       <c r="D59" s="237"/>
@@ -6299,7 +6402,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="412"/>
+      <c r="A60" s="415"/>
       <c r="B60" s="26"/>
       <c r="C60" s="237"/>
       <c r="D60" s="237"/>
@@ -6310,7 +6413,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="412"/>
+      <c r="A61" s="415"/>
       <c r="B61" s="26"/>
       <c r="C61" s="237"/>
       <c r="D61" s="237"/>
@@ -6321,7 +6424,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="412"/>
+      <c r="A62" s="415"/>
       <c r="B62" s="26"/>
       <c r="C62" s="237"/>
       <c r="D62" s="237"/>
@@ -6332,7 +6435,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="412"/>
+      <c r="A63" s="415"/>
       <c r="B63" s="26"/>
       <c r="C63" s="237"/>
       <c r="D63" s="237"/>
@@ -6343,7 +6446,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="412"/>
+      <c r="A64" s="415"/>
       <c r="B64" s="26"/>
       <c r="C64" s="237"/>
       <c r="D64" s="237"/>
@@ -6354,7 +6457,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="412"/>
+      <c r="A65" s="415"/>
       <c r="B65" s="26"/>
       <c r="C65" s="237"/>
       <c r="D65" s="237"/>
@@ -6365,7 +6468,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="412"/>
+      <c r="A66" s="415"/>
       <c r="B66" s="26"/>
       <c r="C66" s="237"/>
       <c r="D66" s="237"/>
@@ -6376,7 +6479,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="412"/>
+      <c r="A67" s="415"/>
       <c r="B67" s="26"/>
       <c r="C67" s="237"/>
       <c r="D67" s="237"/>
@@ -6387,7 +6490,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="412"/>
+      <c r="A68" s="415"/>
       <c r="B68" s="26"/>
       <c r="C68" s="237"/>
       <c r="D68" s="237"/>
@@ -6398,7 +6501,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="412"/>
+      <c r="A69" s="415"/>
       <c r="B69" s="26"/>
       <c r="C69" s="237"/>
       <c r="D69" s="237"/>
@@ -6409,7 +6512,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="412"/>
+      <c r="A70" s="415"/>
       <c r="B70" s="26"/>
       <c r="C70" s="237"/>
       <c r="D70" s="237"/>
@@ -6420,7 +6523,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="412"/>
+      <c r="A71" s="415"/>
       <c r="B71" s="26"/>
       <c r="C71" s="237"/>
       <c r="D71" s="237"/>
@@ -6431,7 +6534,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="412"/>
+      <c r="A72" s="415"/>
       <c r="B72" s="26"/>
       <c r="C72" s="237"/>
       <c r="D72" s="237"/>
@@ -6442,7 +6545,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="412"/>
+      <c r="A73" s="415"/>
       <c r="B73" s="26"/>
       <c r="C73" s="237"/>
       <c r="D73" s="237"/>
@@ -6453,7 +6556,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="412"/>
+      <c r="A74" s="415"/>
       <c r="B74" s="26"/>
       <c r="C74" s="237"/>
       <c r="D74" s="237"/>
@@ -6464,7 +6567,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="412"/>
+      <c r="A75" s="415"/>
       <c r="B75" s="26"/>
       <c r="C75" s="237"/>
       <c r="D75" s="237"/>
@@ -6475,7 +6578,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="412"/>
+      <c r="A76" s="415"/>
       <c r="B76" s="26"/>
       <c r="C76" s="237"/>
       <c r="D76" s="237"/>
@@ -6486,7 +6589,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="412"/>
+      <c r="A77" s="415"/>
       <c r="B77" s="26"/>
       <c r="C77" s="237"/>
       <c r="D77" s="237"/>
@@ -6497,7 +6600,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="412"/>
+      <c r="A78" s="415"/>
       <c r="B78" s="26"/>
       <c r="C78" s="237"/>
       <c r="D78" s="237"/>
@@ -6508,7 +6611,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="412"/>
+      <c r="A79" s="415"/>
       <c r="B79" s="26"/>
       <c r="C79" s="237"/>
       <c r="D79" s="237"/>
@@ -6520,7 +6623,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="412"/>
+      <c r="A80" s="415"/>
       <c r="B80" s="26"/>
       <c r="C80" s="237"/>
       <c r="D80" s="237"/>
@@ -6532,7 +6635,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="412"/>
+      <c r="A81" s="415"/>
       <c r="B81" s="26"/>
       <c r="C81" s="237"/>
       <c r="D81" s="237"/>
@@ -6544,7 +6647,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="412"/>
+      <c r="A82" s="415"/>
       <c r="B82" s="26"/>
       <c r="C82" s="237"/>
       <c r="D82" s="237"/>
@@ -6556,7 +6659,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="412"/>
+      <c r="A83" s="415"/>
       <c r="B83" s="31"/>
       <c r="C83" s="238">
         <f>SUM(C5:C72)</f>
@@ -6619,67 +6722,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="413" t="s">
+      <c r="A1" s="420" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="413"/>
-      <c r="C1" s="413"/>
-      <c r="D1" s="413"/>
-      <c r="E1" s="413"/>
-      <c r="F1" s="413"/>
-      <c r="G1" s="413"/>
-      <c r="H1" s="413"/>
-      <c r="I1" s="413"/>
-      <c r="J1" s="413"/>
-      <c r="K1" s="413"/>
-      <c r="L1" s="413"/>
-      <c r="M1" s="413"/>
-      <c r="N1" s="413"/>
-      <c r="O1" s="413"/>
-      <c r="P1" s="413"/>
-      <c r="Q1" s="413"/>
+      <c r="B1" s="420"/>
+      <c r="C1" s="420"/>
+      <c r="D1" s="420"/>
+      <c r="E1" s="420"/>
+      <c r="F1" s="420"/>
+      <c r="G1" s="420"/>
+      <c r="H1" s="420"/>
+      <c r="I1" s="420"/>
+      <c r="J1" s="420"/>
+      <c r="K1" s="420"/>
+      <c r="L1" s="420"/>
+      <c r="M1" s="420"/>
+      <c r="N1" s="420"/>
+      <c r="O1" s="420"/>
+      <c r="P1" s="420"/>
+      <c r="Q1" s="420"/>
     </row>
     <row r="2" spans="1:24" s="61" customFormat="1" ht="18">
-      <c r="A2" s="414" t="s">
+      <c r="A2" s="421" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="414"/>
-      <c r="C2" s="414"/>
-      <c r="D2" s="414"/>
-      <c r="E2" s="414"/>
-      <c r="F2" s="414"/>
-      <c r="G2" s="414"/>
-      <c r="H2" s="414"/>
-      <c r="I2" s="414"/>
-      <c r="J2" s="414"/>
-      <c r="K2" s="414"/>
-      <c r="L2" s="414"/>
-      <c r="M2" s="414"/>
-      <c r="N2" s="414"/>
-      <c r="O2" s="414"/>
-      <c r="P2" s="414"/>
-      <c r="Q2" s="414"/>
+      <c r="B2" s="421"/>
+      <c r="C2" s="421"/>
+      <c r="D2" s="421"/>
+      <c r="E2" s="421"/>
+      <c r="F2" s="421"/>
+      <c r="G2" s="421"/>
+      <c r="H2" s="421"/>
+      <c r="I2" s="421"/>
+      <c r="J2" s="421"/>
+      <c r="K2" s="421"/>
+      <c r="L2" s="421"/>
+      <c r="M2" s="421"/>
+      <c r="N2" s="421"/>
+      <c r="O2" s="421"/>
+      <c r="P2" s="421"/>
+      <c r="Q2" s="421"/>
     </row>
     <row r="3" spans="1:24" s="62" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="415" t="s">
+      <c r="A3" s="422" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="416"/>
-      <c r="C3" s="416"/>
-      <c r="D3" s="416"/>
-      <c r="E3" s="416"/>
-      <c r="F3" s="416"/>
-      <c r="G3" s="416"/>
-      <c r="H3" s="416"/>
-      <c r="I3" s="416"/>
-      <c r="J3" s="416"/>
-      <c r="K3" s="416"/>
-      <c r="L3" s="416"/>
-      <c r="M3" s="416"/>
-      <c r="N3" s="416"/>
-      <c r="O3" s="416"/>
-      <c r="P3" s="416"/>
-      <c r="Q3" s="417"/>
+      <c r="B3" s="423"/>
+      <c r="C3" s="423"/>
+      <c r="D3" s="423"/>
+      <c r="E3" s="423"/>
+      <c r="F3" s="423"/>
+      <c r="G3" s="423"/>
+      <c r="H3" s="423"/>
+      <c r="I3" s="423"/>
+      <c r="J3" s="423"/>
+      <c r="K3" s="423"/>
+      <c r="L3" s="423"/>
+      <c r="M3" s="423"/>
+      <c r="N3" s="423"/>
+      <c r="O3" s="423"/>
+      <c r="P3" s="423"/>
+      <c r="Q3" s="424"/>
       <c r="S3" s="46"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6688,52 +6791,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="63" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="418" t="s">
+      <c r="A4" s="425" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="420" t="s">
+      <c r="B4" s="427" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="422" t="s">
+      <c r="C4" s="416" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="422" t="s">
+      <c r="D4" s="416" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="422" t="s">
+      <c r="E4" s="416" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="422" t="s">
+      <c r="F4" s="416" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="422" t="s">
+      <c r="G4" s="416" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="422" t="s">
+      <c r="H4" s="416" t="s">
         <v>187</v>
       </c>
-      <c r="I4" s="422" t="s">
+      <c r="I4" s="416" t="s">
         <v>186</v>
       </c>
-      <c r="J4" s="422" t="s">
+      <c r="J4" s="416" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="422" t="s">
+      <c r="K4" s="416" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="422" t="s">
+      <c r="L4" s="416" t="s">
         <v>114</v>
       </c>
-      <c r="M4" s="422" t="s">
+      <c r="M4" s="416" t="s">
         <v>207</v>
       </c>
-      <c r="N4" s="422" t="s">
+      <c r="N4" s="416" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="426" t="s">
+      <c r="O4" s="418" t="s">
         <v>124</v>
       </c>
-      <c r="P4" s="424" t="s">
+      <c r="P4" s="429" t="s">
         <v>147</v>
       </c>
       <c r="Q4" s="118" t="s">
@@ -6746,22 +6849,22 @@
       <c r="W4" s="65"/>
     </row>
     <row r="5" spans="1:24" s="63" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="419"/>
-      <c r="B5" s="421"/>
-      <c r="C5" s="423"/>
-      <c r="D5" s="423"/>
-      <c r="E5" s="423"/>
-      <c r="F5" s="423"/>
-      <c r="G5" s="423"/>
-      <c r="H5" s="423"/>
-      <c r="I5" s="423"/>
-      <c r="J5" s="423"/>
-      <c r="K5" s="423"/>
-      <c r="L5" s="423"/>
-      <c r="M5" s="423"/>
-      <c r="N5" s="423"/>
-      <c r="O5" s="427"/>
-      <c r="P5" s="425"/>
+      <c r="A5" s="426"/>
+      <c r="B5" s="428"/>
+      <c r="C5" s="417"/>
+      <c r="D5" s="417"/>
+      <c r="E5" s="417"/>
+      <c r="F5" s="417"/>
+      <c r="G5" s="417"/>
+      <c r="H5" s="417"/>
+      <c r="I5" s="417"/>
+      <c r="J5" s="417"/>
+      <c r="K5" s="417"/>
+      <c r="L5" s="417"/>
+      <c r="M5" s="417"/>
+      <c r="N5" s="417"/>
+      <c r="O5" s="419"/>
+      <c r="P5" s="430"/>
       <c r="Q5" s="119" t="s">
         <v>36</v>
       </c>
@@ -9925,6 +10028,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
@@ -9941,9 +10047,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9984,15 +10087,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="433" t="s">
+      <c r="A1" s="436" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="433"/>
-      <c r="C1" s="433"/>
-      <c r="D1" s="433"/>
-      <c r="E1" s="433"/>
-      <c r="F1" s="433"/>
-      <c r="G1" s="433"/>
+      <c r="B1" s="436"/>
+      <c r="C1" s="436"/>
+      <c r="D1" s="436"/>
+      <c r="E1" s="436"/>
+      <c r="F1" s="436"/>
+      <c r="G1" s="436"/>
       <c r="H1" s="56"/>
       <c r="I1" s="135"/>
       <c r="J1" s="135"/>
@@ -10085,15 +10188,15 @@
       <c r="CS1" s="130"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="434" t="s">
+      <c r="A2" s="437" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="434"/>
-      <c r="C2" s="434"/>
-      <c r="D2" s="434"/>
-      <c r="E2" s="434"/>
-      <c r="F2" s="434"/>
-      <c r="G2" s="434"/>
+      <c r="B2" s="437"/>
+      <c r="C2" s="437"/>
+      <c r="D2" s="437"/>
+      <c r="E2" s="437"/>
+      <c r="F2" s="437"/>
+      <c r="G2" s="437"/>
       <c r="H2" s="56"/>
       <c r="I2" s="135"/>
       <c r="J2" s="135"/>
@@ -10186,15 +10289,15 @@
       <c r="CS2" s="130"/>
     </row>
     <row r="3" spans="1:97">
-      <c r="A3" s="435" t="s">
+      <c r="A3" s="438" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="435"/>
-      <c r="C3" s="435"/>
-      <c r="D3" s="435"/>
-      <c r="E3" s="435"/>
-      <c r="F3" s="435"/>
-      <c r="G3" s="435"/>
+      <c r="B3" s="438"/>
+      <c r="C3" s="438"/>
+      <c r="D3" s="438"/>
+      <c r="E3" s="438"/>
+      <c r="F3" s="438"/>
+      <c r="G3" s="438"/>
       <c r="H3" s="56"/>
       <c r="I3" s="135"/>
       <c r="J3" s="135"/>
@@ -13680,12 +13783,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="125"/>
-      <c r="B35" s="430" t="s">
+      <c r="B35" s="433" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="430"/>
-      <c r="D35" s="430"/>
-      <c r="E35" s="430"/>
+      <c r="C35" s="433"/>
+      <c r="D35" s="433"/>
+      <c r="E35" s="433"/>
       <c r="F35" s="126"/>
       <c r="G35" s="131"/>
       <c r="H35" s="131"/>
@@ -14546,10 +14649,10 @@
       <c r="D43" s="198"/>
       <c r="E43" s="168"/>
       <c r="F43" s="126"/>
-      <c r="G43" s="431"/>
-      <c r="H43" s="431"/>
-      <c r="I43" s="431"/>
-      <c r="J43" s="431"/>
+      <c r="G43" s="434"/>
+      <c r="H43" s="434"/>
+      <c r="I43" s="434"/>
+      <c r="J43" s="434"/>
       <c r="K43" s="56"/>
       <c r="L43" s="135"/>
       <c r="M43" s="56"/>
@@ -22667,11 +22770,11 @@
       <c r="CS118" s="130"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="428" t="s">
+      <c r="A119" s="431" t="s">
         <v>25</v>
       </c>
-      <c r="B119" s="429"/>
-      <c r="C119" s="432"/>
+      <c r="B119" s="432"/>
+      <c r="C119" s="435"/>
       <c r="D119" s="202">
         <f>SUM(D37:D118)</f>
         <v>2782200</v>
@@ -22876,11 +22979,11 @@
       <c r="CS120" s="130"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="428" t="s">
+      <c r="A121" s="431" t="s">
         <v>26</v>
       </c>
-      <c r="B121" s="429"/>
-      <c r="C121" s="429"/>
+      <c r="B121" s="432"/>
+      <c r="C121" s="432"/>
       <c r="D121" s="202">
         <f>D119+M121</f>
         <v>2782200</v>
@@ -34130,38 +34233,38 @@
   <sheetData>
     <row r="1" spans="6:10" ht="15.75" thickBot="1"/>
     <row r="2" spans="6:10" ht="25.5">
-      <c r="F2" s="436" t="s">
+      <c r="F2" s="439" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="437"/>
-      <c r="H2" s="437"/>
-      <c r="I2" s="437"/>
-      <c r="J2" s="438"/>
+      <c r="G2" s="440"/>
+      <c r="H2" s="440"/>
+      <c r="I2" s="440"/>
+      <c r="J2" s="441"/>
     </row>
     <row r="3" spans="6:10" ht="18">
-      <c r="F3" s="439" t="s">
+      <c r="F3" s="442" t="s">
         <v>232</v>
       </c>
-      <c r="G3" s="440"/>
-      <c r="H3" s="440"/>
-      <c r="I3" s="440"/>
-      <c r="J3" s="441"/>
+      <c r="G3" s="443"/>
+      <c r="H3" s="443"/>
+      <c r="I3" s="443"/>
+      <c r="J3" s="444"/>
     </row>
     <row r="4" spans="6:10" ht="18">
-      <c r="F4" s="439" t="s">
+      <c r="F4" s="442" t="s">
         <v>233</v>
       </c>
-      <c r="G4" s="440"/>
-      <c r="H4" s="440"/>
-      <c r="I4" s="440"/>
-      <c r="J4" s="441"/>
+      <c r="G4" s="443"/>
+      <c r="H4" s="443"/>
+      <c r="I4" s="443"/>
+      <c r="J4" s="444"/>
     </row>
     <row r="5" spans="6:10" ht="4.5" customHeight="1">
-      <c r="F5" s="442"/>
-      <c r="G5" s="443"/>
-      <c r="H5" s="443"/>
-      <c r="I5" s="443"/>
-      <c r="J5" s="444"/>
+      <c r="F5" s="445"/>
+      <c r="G5" s="446"/>
+      <c r="H5" s="446"/>
+      <c r="I5" s="446"/>
+      <c r="J5" s="447"/>
     </row>
     <row r="6" spans="6:10" ht="15.75">
       <c r="F6" s="406" t="s">
@@ -34536,11 +34639,11 @@
       </c>
     </row>
     <row r="28" spans="6:10" ht="18.75" thickBot="1">
-      <c r="F28" s="445" t="s">
+      <c r="F28" s="448" t="s">
         <v>234</v>
       </c>
-      <c r="G28" s="446"/>
-      <c r="H28" s="447"/>
+      <c r="G28" s="449"/>
+      <c r="H28" s="450"/>
       <c r="I28" s="404">
         <f>SUM(I7:I27)</f>
         <v>2782200</v>
@@ -34570,7 +34673,7 @@
   </sheetPr>
   <dimension ref="A1:R217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -34594,28 +34697,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="451" t="s">
+      <c r="A1" s="464" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="452"/>
-      <c r="C1" s="452"/>
-      <c r="D1" s="452"/>
-      <c r="E1" s="453"/>
+      <c r="B1" s="465"/>
+      <c r="C1" s="465"/>
+      <c r="D1" s="465"/>
+      <c r="E1" s="466"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="450"/>
-      <c r="J1" s="450"/>
-      <c r="K1" s="450"/>
+      <c r="I1" s="463"/>
+      <c r="J1" s="463"/>
+      <c r="K1" s="463"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="460" t="s">
+      <c r="A2" s="473" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="461"/>
-      <c r="C2" s="461"/>
-      <c r="D2" s="461"/>
-      <c r="E2" s="462"/>
+      <c r="B2" s="474"/>
+      <c r="C2" s="474"/>
+      <c r="D2" s="474"/>
+      <c r="E2" s="475"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -34636,13 +34739,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="454" t="s">
+      <c r="A3" s="467" t="s">
         <v>225</v>
       </c>
-      <c r="B3" s="455"/>
-      <c r="C3" s="455"/>
-      <c r="D3" s="455"/>
-      <c r="E3" s="456"/>
+      <c r="B3" s="468"/>
+      <c r="C3" s="468"/>
+      <c r="D3" s="468"/>
+      <c r="E3" s="469"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -34669,13 +34772,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="463" t="s">
+      <c r="A4" s="476" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="464"/>
-      <c r="C4" s="464"/>
-      <c r="D4" s="464"/>
-      <c r="E4" s="465"/>
+      <c r="B4" s="477"/>
+      <c r="C4" s="477"/>
+      <c r="D4" s="477"/>
+      <c r="E4" s="478"/>
       <c r="F4" s="5"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
@@ -35166,11 +35269,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="302"/>
-      <c r="I17" s="448" t="s">
+      <c r="I17" s="454" t="s">
         <v>159</v>
       </c>
-      <c r="J17" s="448"/>
-      <c r="K17" s="448"/>
+      <c r="J17" s="454"/>
+      <c r="K17" s="454"/>
       <c r="L17" s="347">
         <f>SUM(L3:L16)</f>
         <v>311650</v>
@@ -35193,11 +35296,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="302"/>
-      <c r="I18" s="466" t="s">
+      <c r="I18" s="479" t="s">
         <v>106</v>
       </c>
-      <c r="J18" s="466"/>
-      <c r="K18" s="466"/>
+      <c r="J18" s="479"/>
+      <c r="K18" s="479"/>
       <c r="L18" s="31">
         <v>54000</v>
       </c>
@@ -35209,21 +35312,21 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="457" t="s">
+      <c r="A19" s="470" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="458"/>
-      <c r="C19" s="458"/>
-      <c r="D19" s="458"/>
-      <c r="E19" s="459"/>
+      <c r="B19" s="471"/>
+      <c r="C19" s="471"/>
+      <c r="D19" s="471"/>
+      <c r="E19" s="472"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="449" t="s">
+      <c r="I19" s="462" t="s">
         <v>217</v>
       </c>
-      <c r="J19" s="449"/>
-      <c r="K19" s="449"/>
+      <c r="J19" s="462"/>
+      <c r="K19" s="462"/>
       <c r="L19" s="31">
         <v>20000</v>
       </c>
@@ -35251,11 +35354,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="467" t="s">
+      <c r="I20" s="461" t="s">
         <v>164</v>
       </c>
-      <c r="J20" s="467"/>
-      <c r="K20" s="467"/>
+      <c r="J20" s="461"/>
+      <c r="K20" s="461"/>
       <c r="L20" s="31">
         <v>19500</v>
       </c>
@@ -35282,11 +35385,11 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="468" t="s">
+      <c r="I21" s="480" t="s">
         <v>216</v>
       </c>
-      <c r="J21" s="469"/>
-      <c r="K21" s="470"/>
+      <c r="J21" s="481"/>
+      <c r="K21" s="482"/>
       <c r="L21" s="31">
         <v>30000</v>
       </c>
@@ -35311,11 +35414,11 @@
       <c r="E22" s="261">
         <v>344190</v>
       </c>
-      <c r="I22" s="468" t="s">
+      <c r="I22" s="480" t="s">
         <v>222</v>
       </c>
-      <c r="J22" s="469"/>
-      <c r="K22" s="470"/>
+      <c r="J22" s="481"/>
+      <c r="K22" s="482"/>
       <c r="L22" s="396">
         <v>20000</v>
       </c>
@@ -35340,11 +35443,11 @@
       <c r="E23" s="261">
         <v>54230</v>
       </c>
-      <c r="I23" s="448" t="s">
+      <c r="I23" s="454" t="s">
         <v>223</v>
       </c>
-      <c r="J23" s="448"/>
-      <c r="K23" s="448"/>
+      <c r="J23" s="454"/>
+      <c r="K23" s="454"/>
       <c r="L23" s="347">
         <f>L17-L18-L19-L20-L21-L22</f>
         <v>168150</v>
@@ -35414,13 +35517,13 @@
       <c r="E26" s="261">
         <v>30180</v>
       </c>
-      <c r="I26" s="474" t="s">
+      <c r="I26" s="455" t="s">
         <v>196</v>
       </c>
-      <c r="J26" s="475"/>
-      <c r="K26" s="475"/>
-      <c r="L26" s="475"/>
-      <c r="M26" s="476"/>
+      <c r="J26" s="456"/>
+      <c r="K26" s="456"/>
+      <c r="L26" s="456"/>
+      <c r="M26" s="457"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -35441,11 +35544,11 @@
       <c r="E27" s="330">
         <v>17000</v>
       </c>
-      <c r="I27" s="477" t="s">
+      <c r="I27" s="458" t="s">
         <v>148</v>
       </c>
-      <c r="J27" s="477"/>
-      <c r="K27" s="478"/>
+      <c r="J27" s="458"/>
+      <c r="K27" s="459"/>
       <c r="L27" s="372">
         <v>213170</v>
       </c>
@@ -35470,11 +35573,11 @@
       <c r="E28" s="268">
         <v>150770</v>
       </c>
-      <c r="I28" s="479" t="s">
+      <c r="I28" s="460" t="s">
         <v>197</v>
       </c>
-      <c r="J28" s="467"/>
-      <c r="K28" s="467"/>
+      <c r="J28" s="461"/>
+      <c r="K28" s="461"/>
       <c r="L28" s="371">
         <v>79500</v>
       </c>
@@ -35501,11 +35604,11 @@
       <c r="E29" s="268">
         <v>50000</v>
       </c>
-      <c r="I29" s="479" t="s">
+      <c r="I29" s="460" t="s">
         <v>197</v>
       </c>
-      <c r="J29" s="467"/>
-      <c r="K29" s="467"/>
+      <c r="J29" s="461"/>
+      <c r="K29" s="461"/>
       <c r="L29" s="374">
         <v>47500</v>
       </c>
@@ -35528,11 +35631,11 @@
       <c r="C30" s="344"/>
       <c r="D30" s="345"/>
       <c r="E30" s="346"/>
-      <c r="I30" s="479" t="s">
+      <c r="I30" s="460" t="s">
         <v>197</v>
       </c>
-      <c r="J30" s="467"/>
-      <c r="K30" s="467"/>
+      <c r="J30" s="461"/>
+      <c r="K30" s="461"/>
       <c r="L30" s="375">
         <v>50000</v>
       </c>
@@ -35550,9 +35653,9 @@
       <c r="B31" s="33"/>
       <c r="C31" s="5"/>
       <c r="D31" s="32"/>
-      <c r="I31" s="471"/>
-      <c r="J31" s="472"/>
-      <c r="K31" s="473"/>
+      <c r="I31" s="451"/>
+      <c r="J31" s="452"/>
+      <c r="K31" s="453"/>
       <c r="L31" s="371"/>
       <c r="M31" s="371"/>
       <c r="N31" s="7"/>
@@ -35562,11 +35665,11 @@
       <c r="R31" s="7"/>
     </row>
     <row r="32" spans="1:18" ht="15.75">
-      <c r="I32" s="448" t="s">
+      <c r="I32" s="454" t="s">
         <v>107</v>
       </c>
-      <c r="J32" s="448"/>
-      <c r="K32" s="448"/>
+      <c r="J32" s="454"/>
+      <c r="K32" s="454"/>
       <c r="L32" s="370">
         <f>L27-L28-L29-L30-L31</f>
         <v>36170</v>
@@ -38296,13 +38399,6 @@
     <sortCondition ref="D20"/>
   </sortState>
   <mergeCells count="20">
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="I1:K1"/>
@@ -38316,6 +38412,13 @@
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.94488188976377963" bottom="0" header="0" footer="0"/>
@@ -38328,8 +38431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D36" sqref="A3:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -38349,10 +38452,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" thickBot="1">
-      <c r="A1" s="480" t="s">
+      <c r="A1" s="483" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="481"/>
+      <c r="B1" s="484"/>
       <c r="C1" s="270">
         <f>G10+C73</f>
         <v>99915</v>
@@ -38398,11 +38501,11 @@
       <c r="H3" s="384" t="s">
         <v>184</v>
       </c>
-      <c r="J3" s="484" t="s">
+      <c r="J3" s="487" t="s">
         <v>212</v>
       </c>
-      <c r="K3" s="484"/>
-      <c r="L3" s="484"/>
+      <c r="K3" s="487"/>
+      <c r="L3" s="487"/>
     </row>
     <row r="4" spans="1:12" ht="15">
       <c r="A4" s="24" t="s">
@@ -38730,11 +38833,11 @@
         <v>0</v>
       </c>
       <c r="E15" s="61"/>
-      <c r="F15" s="487" t="s">
+      <c r="F15" s="490" t="s">
         <v>221</v>
       </c>
-      <c r="G15" s="487"/>
-      <c r="H15" s="487"/>
+      <c r="G15" s="490"/>
+      <c r="H15" s="490"/>
       <c r="J15" s="353" t="s">
         <v>166</v>
       </c>
@@ -38941,10 +39044,10 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A23" s="485" t="s">
+      <c r="A23" s="488" t="s">
         <v>213</v>
       </c>
-      <c r="B23" s="486"/>
+      <c r="B23" s="489"/>
       <c r="C23" s="387">
         <f>SUM(C4:C22)</f>
         <v>64900</v>
@@ -39454,10 +39557,10 @@
       <c r="E72" s="322"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="482" t="s">
+      <c r="A73" s="485" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="483"/>
+      <c r="B73" s="486"/>
       <c r="C73" s="300">
         <f>SUM(C25:C72)</f>
         <v>37350</v>
@@ -39480,6 +39583,499 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" s="491"/>
+      <c r="C1" s="491"/>
+      <c r="D1" s="491"/>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="491"/>
+      <c r="C2" s="491"/>
+      <c r="D2" s="491"/>
+    </row>
+    <row r="3" spans="2:4" ht="15" customHeight="1">
+      <c r="B3" s="492" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="492"/>
+      <c r="D3" s="492"/>
+    </row>
+    <row r="4" spans="2:4" ht="15" customHeight="1">
+      <c r="B4" s="493"/>
+      <c r="C4" s="493"/>
+      <c r="D4" s="493"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="249" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="249" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="249" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="409">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="409">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="409">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="409">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="409">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="409">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="409">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="409" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="409">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="409" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="409">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="409" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="409">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="409">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="409" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="409">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="409" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="409">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="409" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="409">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="409">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="409">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="409">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="385" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="385" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="386">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="409">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="409">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="409">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="409">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="409">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="409">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="13.5" thickBot="1">
+      <c r="B31" s="385" t="s">
+        <v>224</v>
+      </c>
+      <c r="C31" s="385" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="386">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="18.75" thickBot="1">
+      <c r="B32" s="495" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" s="496"/>
+      <c r="D32" s="497">
+        <f>SUM(D6:D31)</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="15">
+      <c r="B34" s="500"/>
+      <c r="C34" s="500" t="s">
+        <v>246</v>
+      </c>
+      <c r="D34" s="500"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="411" t="s">
+        <v>240</v>
+      </c>
+      <c r="C35" s="411" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="410">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="494" t="s">
+        <v>241</v>
+      </c>
+      <c r="C36" s="494" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="494">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="494" t="s">
+        <v>241</v>
+      </c>
+      <c r="C37" s="494" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="494">
+        <v>27700</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="494" t="s">
+        <v>242</v>
+      </c>
+      <c r="C38" s="494" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="494">
+        <v>34500</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="494" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" s="494" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="494">
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="494" t="s">
+        <v>243</v>
+      </c>
+      <c r="C40" s="494" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="494">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="494" t="s">
+        <v>244</v>
+      </c>
+      <c r="C41" s="494" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="494">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="13.5" thickBot="1">
+      <c r="B42" s="499" t="s">
+        <v>245</v>
+      </c>
+      <c r="C42" s="498" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="498">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="21" thickBot="1">
+      <c r="B43" s="501" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="502"/>
+      <c r="D43" s="503">
+        <f>SUM(D35:D42)</f>
+        <v>142900</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="13.5" thickBot="1"/>
+    <row r="46" spans="2:4" ht="27" thickBot="1">
+      <c r="B46" s="504" t="s">
+        <v>247</v>
+      </c>
+      <c r="C46" s="505"/>
+      <c r="D46" s="506">
+        <f>D32+D43</f>
+        <v>242900</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="27" customHeight="1" thickBot="1">
+      <c r="B47" s="507" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" s="508"/>
+      <c r="D47" s="509">
+        <v>223200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="26.25" thickBot="1">
+      <c r="B48" s="510" t="s">
+        <v>249</v>
+      </c>
+      <c r="C48" s="511"/>
+      <c r="D48" s="512">
+        <f>D46-D47</f>
+        <v>19700</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="B43:C43"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/2022/SAMSUNG/JUNE/30.06.2022/SAMSUNG Bank Statement June-2022.xlsx
+++ b/2022/SAMSUNG/JUNE/30.06.2022/SAMSUNG Bank Statement June-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="252">
   <si>
     <t>Date</t>
   </si>
@@ -898,6 +898,12 @@
   </si>
   <si>
     <t>GAP</t>
+  </si>
+  <si>
+    <t>17.08.2022</t>
+  </si>
+  <si>
+    <t>Munna(Mum Telecom)</t>
   </si>
 </sst>
 </file>
@@ -3519,6 +3525,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="47" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3636,6 +3667,75 @@
     <xf numFmtId="0" fontId="40" fillId="42" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3645,9 +3745,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3666,72 +3763,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3756,69 +3787,44 @@
     <xf numFmtId="0" fontId="46" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="47" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="47" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="47" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="47" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="47" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="47" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="47" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="47" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="47" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -4294,33 +4300,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="414"/>
-      <c r="B1" s="414"/>
-      <c r="C1" s="414"/>
-      <c r="D1" s="414"/>
-      <c r="E1" s="414"/>
-      <c r="F1" s="414"/>
+      <c r="A1" s="423"/>
+      <c r="B1" s="423"/>
+      <c r="C1" s="423"/>
+      <c r="D1" s="423"/>
+      <c r="E1" s="423"/>
+      <c r="F1" s="423"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="415"/>
-      <c r="B2" s="412" t="s">
+      <c r="A2" s="424"/>
+      <c r="B2" s="421" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="412"/>
-      <c r="D2" s="412"/>
-      <c r="E2" s="412"/>
+      <c r="C2" s="421"/>
+      <c r="D2" s="421"/>
+      <c r="E2" s="421"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="415"/>
-      <c r="B3" s="413" t="s">
+      <c r="A3" s="424"/>
+      <c r="B3" s="422" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="413"/>
-      <c r="D3" s="413"/>
-      <c r="E3" s="413"/>
+      <c r="C3" s="422"/>
+      <c r="D3" s="422"/>
+      <c r="E3" s="422"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="415"/>
+      <c r="A4" s="424"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4338,7 +4344,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="415"/>
+      <c r="A5" s="424"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4356,7 +4362,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="415"/>
+      <c r="A6" s="424"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4368,7 +4374,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="415"/>
+      <c r="A7" s="424"/>
       <c r="B7" s="26" t="s">
         <v>40</v>
       </c>
@@ -4387,7 +4393,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="415"/>
+      <c r="A8" s="424"/>
       <c r="B8" s="26" t="s">
         <v>41</v>
       </c>
@@ -4406,7 +4412,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="415"/>
+      <c r="A9" s="424"/>
       <c r="B9" s="26" t="s">
         <v>43</v>
       </c>
@@ -4425,7 +4431,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="415"/>
+      <c r="A10" s="424"/>
       <c r="B10" s="26" t="s">
         <v>44</v>
       </c>
@@ -4444,7 +4450,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="415"/>
+      <c r="A11" s="424"/>
       <c r="B11" s="26" t="s">
         <v>45</v>
       </c>
@@ -4463,7 +4469,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="415"/>
+      <c r="A12" s="424"/>
       <c r="B12" s="26" t="s">
         <v>46</v>
       </c>
@@ -4482,7 +4488,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="415"/>
+      <c r="A13" s="424"/>
       <c r="B13" s="26" t="s">
         <v>47</v>
       </c>
@@ -4501,7 +4507,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="415"/>
+      <c r="A14" s="424"/>
       <c r="B14" s="26" t="s">
         <v>48</v>
       </c>
@@ -4520,7 +4526,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="415"/>
+      <c r="A15" s="424"/>
       <c r="B15" s="26" t="s">
         <v>49</v>
       </c>
@@ -4539,7 +4545,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="415"/>
+      <c r="A16" s="424"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4552,7 +4558,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="415"/>
+      <c r="A17" s="424"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4565,7 +4571,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="415"/>
+      <c r="A18" s="424"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4578,7 +4584,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="415"/>
+      <c r="A19" s="424"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4591,7 +4597,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="415"/>
+      <c r="A20" s="424"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4604,7 +4610,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="415"/>
+      <c r="A21" s="424"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4617,7 +4623,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="415"/>
+      <c r="A22" s="424"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4630,7 +4636,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="415"/>
+      <c r="A23" s="424"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4643,7 +4649,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="415"/>
+      <c r="A24" s="424"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4656,7 +4662,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="415"/>
+      <c r="A25" s="424"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4669,7 +4675,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="415"/>
+      <c r="A26" s="424"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4682,7 +4688,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="415"/>
+      <c r="A27" s="424"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4695,7 +4701,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="415"/>
+      <c r="A28" s="424"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4708,7 +4714,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="415"/>
+      <c r="A29" s="424"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4721,7 +4727,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="415"/>
+      <c r="A30" s="424"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4734,7 +4740,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="415"/>
+      <c r="A31" s="424"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4747,7 +4753,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="415"/>
+      <c r="A32" s="424"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4760,7 +4766,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="415"/>
+      <c r="A33" s="424"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4773,7 +4779,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="415"/>
+      <c r="A34" s="424"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4786,7 +4792,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="415"/>
+      <c r="A35" s="424"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4799,7 +4805,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="415"/>
+      <c r="A36" s="424"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4812,7 +4818,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="415"/>
+      <c r="A37" s="424"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4825,7 +4831,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="415"/>
+      <c r="A38" s="424"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4838,7 +4844,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="415"/>
+      <c r="A39" s="424"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4851,7 +4857,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="415"/>
+      <c r="A40" s="424"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4864,7 +4870,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="415"/>
+      <c r="A41" s="424"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4877,7 +4883,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="415"/>
+      <c r="A42" s="424"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4890,7 +4896,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="415"/>
+      <c r="A43" s="424"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4903,7 +4909,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="415"/>
+      <c r="A44" s="424"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4916,7 +4922,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="415"/>
+      <c r="A45" s="424"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4929,7 +4935,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="415"/>
+      <c r="A46" s="424"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4942,7 +4948,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="415"/>
+      <c r="A47" s="424"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4955,7 +4961,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="415"/>
+      <c r="A48" s="424"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4968,7 +4974,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="415"/>
+      <c r="A49" s="424"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4981,7 +4987,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="415"/>
+      <c r="A50" s="424"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4994,7 +5000,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="415"/>
+      <c r="A51" s="424"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -5007,7 +5013,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="415"/>
+      <c r="A52" s="424"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -5020,7 +5026,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="415"/>
+      <c r="A53" s="424"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -5033,7 +5039,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="415"/>
+      <c r="A54" s="424"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -5046,7 +5052,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="415"/>
+      <c r="A55" s="424"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -5058,7 +5064,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="415"/>
+      <c r="A56" s="424"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -5070,7 +5076,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="415"/>
+      <c r="A57" s="424"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -5082,7 +5088,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="415"/>
+      <c r="A58" s="424"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -5094,7 +5100,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="415"/>
+      <c r="A59" s="424"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -5106,7 +5112,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="415"/>
+      <c r="A60" s="424"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -5118,7 +5124,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="415"/>
+      <c r="A61" s="424"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -5130,7 +5136,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="415"/>
+      <c r="A62" s="424"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -5142,7 +5148,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="415"/>
+      <c r="A63" s="424"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -5154,7 +5160,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="415"/>
+      <c r="A64" s="424"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -5166,7 +5172,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="415"/>
+      <c r="A65" s="424"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -5178,7 +5184,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="415"/>
+      <c r="A66" s="424"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -5190,7 +5196,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="415"/>
+      <c r="A67" s="424"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -5202,7 +5208,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="415"/>
+      <c r="A68" s="424"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -5214,7 +5220,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="415"/>
+      <c r="A69" s="424"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -5226,7 +5232,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="415"/>
+      <c r="A70" s="424"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -5238,7 +5244,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="415"/>
+      <c r="A71" s="424"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -5250,7 +5256,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="415"/>
+      <c r="A72" s="424"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -5262,7 +5268,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="415"/>
+      <c r="A73" s="424"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -5274,7 +5280,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="415"/>
+      <c r="A74" s="424"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5286,7 +5292,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="415"/>
+      <c r="A75" s="424"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5298,7 +5304,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="415"/>
+      <c r="A76" s="424"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5310,7 +5316,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="415"/>
+      <c r="A77" s="424"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5322,7 +5328,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="415"/>
+      <c r="A78" s="424"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5334,7 +5340,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="415"/>
+      <c r="A79" s="424"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5346,7 +5352,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="415"/>
+      <c r="A80" s="424"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5358,7 +5364,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="415"/>
+      <c r="A81" s="424"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5370,7 +5376,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="415"/>
+      <c r="A82" s="424"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5382,7 +5388,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="415"/>
+      <c r="A83" s="424"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5439,33 +5445,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A1" s="414"/>
-      <c r="B1" s="414"/>
-      <c r="C1" s="414"/>
-      <c r="D1" s="414"/>
-      <c r="E1" s="414"/>
-      <c r="F1" s="414"/>
+      <c r="A1" s="423"/>
+      <c r="B1" s="423"/>
+      <c r="C1" s="423"/>
+      <c r="D1" s="423"/>
+      <c r="E1" s="423"/>
+      <c r="F1" s="423"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="415"/>
-      <c r="B2" s="412" t="s">
+      <c r="A2" s="424"/>
+      <c r="B2" s="421" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="412"/>
-      <c r="D2" s="412"/>
-      <c r="E2" s="412"/>
+      <c r="C2" s="421"/>
+      <c r="D2" s="421"/>
+      <c r="E2" s="421"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A3" s="415"/>
-      <c r="B3" s="413" t="s">
+      <c r="A3" s="424"/>
+      <c r="B3" s="422" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="413"/>
-      <c r="D3" s="413"/>
-      <c r="E3" s="413"/>
+      <c r="C3" s="422"/>
+      <c r="D3" s="422"/>
+      <c r="E3" s="422"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="415"/>
+      <c r="A4" s="424"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5483,7 +5489,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="415"/>
+      <c r="A5" s="424"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5501,7 +5507,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="415"/>
+      <c r="A6" s="424"/>
       <c r="B6" s="26"/>
       <c r="C6" s="237"/>
       <c r="D6" s="237"/>
@@ -5513,7 +5519,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="415"/>
+      <c r="A7" s="424"/>
       <c r="B7" s="26" t="s">
         <v>162</v>
       </c>
@@ -5533,7 +5539,7 @@
       <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="415"/>
+      <c r="A8" s="424"/>
       <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
@@ -5553,7 +5559,7 @@
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="415"/>
+      <c r="A9" s="424"/>
       <c r="B9" s="26" t="s">
         <v>168</v>
       </c>
@@ -5573,7 +5579,7 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="415"/>
+      <c r="A10" s="424"/>
       <c r="B10" s="26" t="s">
         <v>171</v>
       </c>
@@ -5593,7 +5599,7 @@
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="415"/>
+      <c r="A11" s="424"/>
       <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
@@ -5613,7 +5619,7 @@
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="415"/>
+      <c r="A12" s="424"/>
       <c r="B12" s="26" t="s">
         <v>174</v>
       </c>
@@ -5633,7 +5639,7 @@
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="415"/>
+      <c r="A13" s="424"/>
       <c r="B13" s="26" t="s">
         <v>175</v>
       </c>
@@ -5653,7 +5659,7 @@
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="415"/>
+      <c r="A14" s="424"/>
       <c r="B14" s="26" t="s">
         <v>176</v>
       </c>
@@ -5673,7 +5679,7 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="415"/>
+      <c r="A15" s="424"/>
       <c r="B15" s="26" t="s">
         <v>177</v>
       </c>
@@ -5693,7 +5699,7 @@
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="415"/>
+      <c r="A16" s="424"/>
       <c r="B16" s="26" t="s">
         <v>180</v>
       </c>
@@ -5713,7 +5719,7 @@
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="415"/>
+      <c r="A17" s="424"/>
       <c r="B17" s="26" t="s">
         <v>181</v>
       </c>
@@ -5733,7 +5739,7 @@
       <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="415"/>
+      <c r="A18" s="424"/>
       <c r="B18" s="26" t="s">
         <v>184</v>
       </c>
@@ -5753,7 +5759,7 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A19" s="415"/>
+      <c r="A19" s="424"/>
       <c r="B19" s="26" t="s">
         <v>184</v>
       </c>
@@ -5773,7 +5779,7 @@
       <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="415"/>
+      <c r="A20" s="424"/>
       <c r="B20" s="26" t="s">
         <v>188</v>
       </c>
@@ -5793,7 +5799,7 @@
       <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="415"/>
+      <c r="A21" s="424"/>
       <c r="B21" s="26" t="s">
         <v>190</v>
       </c>
@@ -5813,7 +5819,7 @@
       <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="415"/>
+      <c r="A22" s="424"/>
       <c r="B22" s="26" t="s">
         <v>191</v>
       </c>
@@ -5833,7 +5839,7 @@
       <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="415"/>
+      <c r="A23" s="424"/>
       <c r="B23" s="26" t="s">
         <v>193</v>
       </c>
@@ -5853,7 +5859,7 @@
       <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="415"/>
+      <c r="A24" s="424"/>
       <c r="B24" s="26" t="s">
         <v>195</v>
       </c>
@@ -5873,7 +5879,7 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="415"/>
+      <c r="A25" s="424"/>
       <c r="B25" s="26" t="s">
         <v>198</v>
       </c>
@@ -5893,7 +5899,7 @@
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="415"/>
+      <c r="A26" s="424"/>
       <c r="B26" s="26" t="s">
         <v>199</v>
       </c>
@@ -5913,7 +5919,7 @@
       <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="415"/>
+      <c r="A27" s="424"/>
       <c r="B27" s="26" t="s">
         <v>200</v>
       </c>
@@ -5933,7 +5939,7 @@
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="415"/>
+      <c r="A28" s="424"/>
       <c r="B28" s="26" t="s">
         <v>201</v>
       </c>
@@ -5953,7 +5959,7 @@
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="415"/>
+      <c r="A29" s="424"/>
       <c r="B29" s="26" t="s">
         <v>206</v>
       </c>
@@ -5973,7 +5979,7 @@
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="415"/>
+      <c r="A30" s="424"/>
       <c r="B30" s="26" t="s">
         <v>219</v>
       </c>
@@ -5993,7 +5999,7 @@
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="415"/>
+      <c r="A31" s="424"/>
       <c r="B31" s="26" t="s">
         <v>220</v>
       </c>
@@ -6013,7 +6019,7 @@
       <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="415"/>
+      <c r="A32" s="424"/>
       <c r="B32" s="26" t="s">
         <v>224</v>
       </c>
@@ -6033,7 +6039,7 @@
       <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="415"/>
+      <c r="A33" s="424"/>
       <c r="B33" s="26"/>
       <c r="C33" s="237"/>
       <c r="D33" s="239"/>
@@ -6047,7 +6053,7 @@
       <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="415"/>
+      <c r="A34" s="424"/>
       <c r="B34" s="26"/>
       <c r="C34" s="237"/>
       <c r="D34" s="237"/>
@@ -6061,7 +6067,7 @@
       <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="415"/>
+      <c r="A35" s="424"/>
       <c r="B35" s="26"/>
       <c r="C35" s="237"/>
       <c r="D35" s="237"/>
@@ -6075,7 +6081,7 @@
       <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="415"/>
+      <c r="A36" s="424"/>
       <c r="B36" s="26"/>
       <c r="C36" s="237"/>
       <c r="D36" s="237"/>
@@ -6089,7 +6095,7 @@
       <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="415"/>
+      <c r="A37" s="424"/>
       <c r="B37" s="26"/>
       <c r="C37" s="237"/>
       <c r="D37" s="237"/>
@@ -6103,7 +6109,7 @@
       <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="415"/>
+      <c r="A38" s="424"/>
       <c r="B38" s="26"/>
       <c r="C38" s="237"/>
       <c r="D38" s="237"/>
@@ -6117,7 +6123,7 @@
       <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="415"/>
+      <c r="A39" s="424"/>
       <c r="B39" s="26"/>
       <c r="C39" s="237"/>
       <c r="D39" s="237"/>
@@ -6131,7 +6137,7 @@
       <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="415"/>
+      <c r="A40" s="424"/>
       <c r="B40" s="26"/>
       <c r="C40" s="237"/>
       <c r="D40" s="237"/>
@@ -6145,7 +6151,7 @@
       <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="415"/>
+      <c r="A41" s="424"/>
       <c r="B41" s="26"/>
       <c r="C41" s="237"/>
       <c r="D41" s="237"/>
@@ -6159,7 +6165,7 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="415"/>
+      <c r="A42" s="424"/>
       <c r="B42" s="26"/>
       <c r="C42" s="237"/>
       <c r="D42" s="237"/>
@@ -6173,7 +6179,7 @@
       <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="415"/>
+      <c r="A43" s="424"/>
       <c r="B43" s="26"/>
       <c r="C43" s="237"/>
       <c r="D43" s="237"/>
@@ -6187,7 +6193,7 @@
       <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="415"/>
+      <c r="A44" s="424"/>
       <c r="B44" s="26"/>
       <c r="C44" s="237"/>
       <c r="D44" s="237"/>
@@ -6201,7 +6207,7 @@
       <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="415"/>
+      <c r="A45" s="424"/>
       <c r="B45" s="26"/>
       <c r="C45" s="237"/>
       <c r="D45" s="237"/>
@@ -6215,7 +6221,7 @@
       <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="415"/>
+      <c r="A46" s="424"/>
       <c r="B46" s="26"/>
       <c r="C46" s="237"/>
       <c r="D46" s="237"/>
@@ -6229,7 +6235,7 @@
       <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="415"/>
+      <c r="A47" s="424"/>
       <c r="B47" s="26"/>
       <c r="C47" s="237"/>
       <c r="D47" s="237"/>
@@ -6243,7 +6249,7 @@
       <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="415"/>
+      <c r="A48" s="424"/>
       <c r="B48" s="26"/>
       <c r="C48" s="237"/>
       <c r="D48" s="237"/>
@@ -6257,7 +6263,7 @@
       <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="415"/>
+      <c r="A49" s="424"/>
       <c r="B49" s="26"/>
       <c r="C49" s="237"/>
       <c r="D49" s="237"/>
@@ -6271,7 +6277,7 @@
       <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="415"/>
+      <c r="A50" s="424"/>
       <c r="B50" s="26"/>
       <c r="C50" s="237"/>
       <c r="D50" s="237"/>
@@ -6285,7 +6291,7 @@
       <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="415"/>
+      <c r="A51" s="424"/>
       <c r="B51" s="26"/>
       <c r="C51" s="237"/>
       <c r="D51" s="237"/>
@@ -6299,7 +6305,7 @@
       <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="415"/>
+      <c r="A52" s="424"/>
       <c r="B52" s="26"/>
       <c r="C52" s="237"/>
       <c r="D52" s="237"/>
@@ -6313,7 +6319,7 @@
       <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="415"/>
+      <c r="A53" s="424"/>
       <c r="B53" s="26"/>
       <c r="C53" s="237"/>
       <c r="D53" s="237"/>
@@ -6327,7 +6333,7 @@
       <c r="I53" s="21"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="415"/>
+      <c r="A54" s="424"/>
       <c r="B54" s="26"/>
       <c r="C54" s="237"/>
       <c r="D54" s="237"/>
@@ -6341,7 +6347,7 @@
       <c r="I54" s="21"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="415"/>
+      <c r="A55" s="424"/>
       <c r="B55" s="26"/>
       <c r="C55" s="237"/>
       <c r="D55" s="237"/>
@@ -6355,7 +6361,7 @@
       <c r="I55" s="21"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="415"/>
+      <c r="A56" s="424"/>
       <c r="B56" s="26"/>
       <c r="C56" s="237"/>
       <c r="D56" s="237"/>
@@ -6369,7 +6375,7 @@
       <c r="I56" s="21"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="415"/>
+      <c r="A57" s="424"/>
       <c r="B57" s="26"/>
       <c r="C57" s="237"/>
       <c r="D57" s="237"/>
@@ -6380,7 +6386,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="415"/>
+      <c r="A58" s="424"/>
       <c r="B58" s="26"/>
       <c r="C58" s="237"/>
       <c r="D58" s="237"/>
@@ -6391,7 +6397,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="415"/>
+      <c r="A59" s="424"/>
       <c r="B59" s="26"/>
       <c r="C59" s="237"/>
       <c r="D59" s="237"/>
@@ -6402,7 +6408,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="415"/>
+      <c r="A60" s="424"/>
       <c r="B60" s="26"/>
       <c r="C60" s="237"/>
       <c r="D60" s="237"/>
@@ -6413,7 +6419,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="415"/>
+      <c r="A61" s="424"/>
       <c r="B61" s="26"/>
       <c r="C61" s="237"/>
       <c r="D61" s="237"/>
@@ -6424,7 +6430,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="415"/>
+      <c r="A62" s="424"/>
       <c r="B62" s="26"/>
       <c r="C62" s="237"/>
       <c r="D62" s="237"/>
@@ -6435,7 +6441,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="415"/>
+      <c r="A63" s="424"/>
       <c r="B63" s="26"/>
       <c r="C63" s="237"/>
       <c r="D63" s="237"/>
@@ -6446,7 +6452,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="415"/>
+      <c r="A64" s="424"/>
       <c r="B64" s="26"/>
       <c r="C64" s="237"/>
       <c r="D64" s="237"/>
@@ -6457,7 +6463,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="415"/>
+      <c r="A65" s="424"/>
       <c r="B65" s="26"/>
       <c r="C65" s="237"/>
       <c r="D65" s="237"/>
@@ -6468,7 +6474,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="415"/>
+      <c r="A66" s="424"/>
       <c r="B66" s="26"/>
       <c r="C66" s="237"/>
       <c r="D66" s="237"/>
@@ -6479,7 +6485,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="415"/>
+      <c r="A67" s="424"/>
       <c r="B67" s="26"/>
       <c r="C67" s="237"/>
       <c r="D67" s="237"/>
@@ -6490,7 +6496,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="415"/>
+      <c r="A68" s="424"/>
       <c r="B68" s="26"/>
       <c r="C68" s="237"/>
       <c r="D68" s="237"/>
@@ -6501,7 +6507,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="415"/>
+      <c r="A69" s="424"/>
       <c r="B69" s="26"/>
       <c r="C69" s="237"/>
       <c r="D69" s="237"/>
@@ -6512,7 +6518,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="415"/>
+      <c r="A70" s="424"/>
       <c r="B70" s="26"/>
       <c r="C70" s="237"/>
       <c r="D70" s="237"/>
@@ -6523,7 +6529,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="415"/>
+      <c r="A71" s="424"/>
       <c r="B71" s="26"/>
       <c r="C71" s="237"/>
       <c r="D71" s="237"/>
@@ -6534,7 +6540,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="415"/>
+      <c r="A72" s="424"/>
       <c r="B72" s="26"/>
       <c r="C72" s="237"/>
       <c r="D72" s="237"/>
@@ -6545,7 +6551,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="415"/>
+      <c r="A73" s="424"/>
       <c r="B73" s="26"/>
       <c r="C73" s="237"/>
       <c r="D73" s="237"/>
@@ -6556,7 +6562,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="415"/>
+      <c r="A74" s="424"/>
       <c r="B74" s="26"/>
       <c r="C74" s="237"/>
       <c r="D74" s="237"/>
@@ -6567,7 +6573,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="415"/>
+      <c r="A75" s="424"/>
       <c r="B75" s="26"/>
       <c r="C75" s="237"/>
       <c r="D75" s="237"/>
@@ -6578,7 +6584,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="415"/>
+      <c r="A76" s="424"/>
       <c r="B76" s="26"/>
       <c r="C76" s="237"/>
       <c r="D76" s="237"/>
@@ -6589,7 +6595,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="415"/>
+      <c r="A77" s="424"/>
       <c r="B77" s="26"/>
       <c r="C77" s="237"/>
       <c r="D77" s="237"/>
@@ -6600,7 +6606,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="415"/>
+      <c r="A78" s="424"/>
       <c r="B78" s="26"/>
       <c r="C78" s="237"/>
       <c r="D78" s="237"/>
@@ -6611,7 +6617,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="415"/>
+      <c r="A79" s="424"/>
       <c r="B79" s="26"/>
       <c r="C79" s="237"/>
       <c r="D79" s="237"/>
@@ -6623,7 +6629,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="415"/>
+      <c r="A80" s="424"/>
       <c r="B80" s="26"/>
       <c r="C80" s="237"/>
       <c r="D80" s="237"/>
@@ -6635,7 +6641,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="415"/>
+      <c r="A81" s="424"/>
       <c r="B81" s="26"/>
       <c r="C81" s="237"/>
       <c r="D81" s="237"/>
@@ -6647,7 +6653,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="415"/>
+      <c r="A82" s="424"/>
       <c r="B82" s="26"/>
       <c r="C82" s="237"/>
       <c r="D82" s="237"/>
@@ -6659,7 +6665,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="415"/>
+      <c r="A83" s="424"/>
       <c r="B83" s="31"/>
       <c r="C83" s="238">
         <f>SUM(C5:C72)</f>
@@ -6722,67 +6728,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="420" t="s">
+      <c r="A1" s="429" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="420"/>
-      <c r="C1" s="420"/>
-      <c r="D1" s="420"/>
-      <c r="E1" s="420"/>
-      <c r="F1" s="420"/>
-      <c r="G1" s="420"/>
-      <c r="H1" s="420"/>
-      <c r="I1" s="420"/>
-      <c r="J1" s="420"/>
-      <c r="K1" s="420"/>
-      <c r="L1" s="420"/>
-      <c r="M1" s="420"/>
-      <c r="N1" s="420"/>
-      <c r="O1" s="420"/>
-      <c r="P1" s="420"/>
-      <c r="Q1" s="420"/>
+      <c r="B1" s="429"/>
+      <c r="C1" s="429"/>
+      <c r="D1" s="429"/>
+      <c r="E1" s="429"/>
+      <c r="F1" s="429"/>
+      <c r="G1" s="429"/>
+      <c r="H1" s="429"/>
+      <c r="I1" s="429"/>
+      <c r="J1" s="429"/>
+      <c r="K1" s="429"/>
+      <c r="L1" s="429"/>
+      <c r="M1" s="429"/>
+      <c r="N1" s="429"/>
+      <c r="O1" s="429"/>
+      <c r="P1" s="429"/>
+      <c r="Q1" s="429"/>
     </row>
     <row r="2" spans="1:24" s="61" customFormat="1" ht="18">
-      <c r="A2" s="421" t="s">
+      <c r="A2" s="430" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="421"/>
-      <c r="C2" s="421"/>
-      <c r="D2" s="421"/>
-      <c r="E2" s="421"/>
-      <c r="F2" s="421"/>
-      <c r="G2" s="421"/>
-      <c r="H2" s="421"/>
-      <c r="I2" s="421"/>
-      <c r="J2" s="421"/>
-      <c r="K2" s="421"/>
-      <c r="L2" s="421"/>
-      <c r="M2" s="421"/>
-      <c r="N2" s="421"/>
-      <c r="O2" s="421"/>
-      <c r="P2" s="421"/>
-      <c r="Q2" s="421"/>
+      <c r="B2" s="430"/>
+      <c r="C2" s="430"/>
+      <c r="D2" s="430"/>
+      <c r="E2" s="430"/>
+      <c r="F2" s="430"/>
+      <c r="G2" s="430"/>
+      <c r="H2" s="430"/>
+      <c r="I2" s="430"/>
+      <c r="J2" s="430"/>
+      <c r="K2" s="430"/>
+      <c r="L2" s="430"/>
+      <c r="M2" s="430"/>
+      <c r="N2" s="430"/>
+      <c r="O2" s="430"/>
+      <c r="P2" s="430"/>
+      <c r="Q2" s="430"/>
     </row>
     <row r="3" spans="1:24" s="62" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="422" t="s">
+      <c r="A3" s="431" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="423"/>
-      <c r="C3" s="423"/>
-      <c r="D3" s="423"/>
-      <c r="E3" s="423"/>
-      <c r="F3" s="423"/>
-      <c r="G3" s="423"/>
-      <c r="H3" s="423"/>
-      <c r="I3" s="423"/>
-      <c r="J3" s="423"/>
-      <c r="K3" s="423"/>
-      <c r="L3" s="423"/>
-      <c r="M3" s="423"/>
-      <c r="N3" s="423"/>
-      <c r="O3" s="423"/>
-      <c r="P3" s="423"/>
-      <c r="Q3" s="424"/>
+      <c r="B3" s="432"/>
+      <c r="C3" s="432"/>
+      <c r="D3" s="432"/>
+      <c r="E3" s="432"/>
+      <c r="F3" s="432"/>
+      <c r="G3" s="432"/>
+      <c r="H3" s="432"/>
+      <c r="I3" s="432"/>
+      <c r="J3" s="432"/>
+      <c r="K3" s="432"/>
+      <c r="L3" s="432"/>
+      <c r="M3" s="432"/>
+      <c r="N3" s="432"/>
+      <c r="O3" s="432"/>
+      <c r="P3" s="432"/>
+      <c r="Q3" s="433"/>
       <c r="S3" s="46"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6791,52 +6797,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="63" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="425" t="s">
+      <c r="A4" s="434" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="427" t="s">
+      <c r="B4" s="436" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="416" t="s">
+      <c r="C4" s="425" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="416" t="s">
+      <c r="D4" s="425" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="416" t="s">
+      <c r="E4" s="425" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="416" t="s">
+      <c r="F4" s="425" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="416" t="s">
+      <c r="G4" s="425" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="416" t="s">
+      <c r="H4" s="425" t="s">
         <v>187</v>
       </c>
-      <c r="I4" s="416" t="s">
+      <c r="I4" s="425" t="s">
         <v>186</v>
       </c>
-      <c r="J4" s="416" t="s">
+      <c r="J4" s="425" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="416" t="s">
+      <c r="K4" s="425" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="416" t="s">
+      <c r="L4" s="425" t="s">
         <v>114</v>
       </c>
-      <c r="M4" s="416" t="s">
+      <c r="M4" s="425" t="s">
         <v>207</v>
       </c>
-      <c r="N4" s="416" t="s">
+      <c r="N4" s="425" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="418" t="s">
+      <c r="O4" s="427" t="s">
         <v>124</v>
       </c>
-      <c r="P4" s="429" t="s">
+      <c r="P4" s="438" t="s">
         <v>147</v>
       </c>
       <c r="Q4" s="118" t="s">
@@ -6849,22 +6855,22 @@
       <c r="W4" s="65"/>
     </row>
     <row r="5" spans="1:24" s="63" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="426"/>
-      <c r="B5" s="428"/>
-      <c r="C5" s="417"/>
-      <c r="D5" s="417"/>
-      <c r="E5" s="417"/>
-      <c r="F5" s="417"/>
-      <c r="G5" s="417"/>
-      <c r="H5" s="417"/>
-      <c r="I5" s="417"/>
-      <c r="J5" s="417"/>
-      <c r="K5" s="417"/>
-      <c r="L5" s="417"/>
-      <c r="M5" s="417"/>
-      <c r="N5" s="417"/>
-      <c r="O5" s="419"/>
-      <c r="P5" s="430"/>
+      <c r="A5" s="435"/>
+      <c r="B5" s="437"/>
+      <c r="C5" s="426"/>
+      <c r="D5" s="426"/>
+      <c r="E5" s="426"/>
+      <c r="F5" s="426"/>
+      <c r="G5" s="426"/>
+      <c r="H5" s="426"/>
+      <c r="I5" s="426"/>
+      <c r="J5" s="426"/>
+      <c r="K5" s="426"/>
+      <c r="L5" s="426"/>
+      <c r="M5" s="426"/>
+      <c r="N5" s="426"/>
+      <c r="O5" s="428"/>
+      <c r="P5" s="439"/>
       <c r="Q5" s="119" t="s">
         <v>36</v>
       </c>
@@ -10028,11 +10034,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -10047,6 +10048,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -10087,15 +10093,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="436" t="s">
+      <c r="A1" s="445" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="436"/>
-      <c r="C1" s="436"/>
-      <c r="D1" s="436"/>
-      <c r="E1" s="436"/>
-      <c r="F1" s="436"/>
-      <c r="G1" s="436"/>
+      <c r="B1" s="445"/>
+      <c r="C1" s="445"/>
+      <c r="D1" s="445"/>
+      <c r="E1" s="445"/>
+      <c r="F1" s="445"/>
+      <c r="G1" s="445"/>
       <c r="H1" s="56"/>
       <c r="I1" s="135"/>
       <c r="J1" s="135"/>
@@ -10188,15 +10194,15 @@
       <c r="CS1" s="130"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="437" t="s">
+      <c r="A2" s="446" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="437"/>
-      <c r="C2" s="437"/>
-      <c r="D2" s="437"/>
-      <c r="E2" s="437"/>
-      <c r="F2" s="437"/>
-      <c r="G2" s="437"/>
+      <c r="B2" s="446"/>
+      <c r="C2" s="446"/>
+      <c r="D2" s="446"/>
+      <c r="E2" s="446"/>
+      <c r="F2" s="446"/>
+      <c r="G2" s="446"/>
       <c r="H2" s="56"/>
       <c r="I2" s="135"/>
       <c r="J2" s="135"/>
@@ -10289,15 +10295,15 @@
       <c r="CS2" s="130"/>
     </row>
     <row r="3" spans="1:97">
-      <c r="A3" s="438" t="s">
+      <c r="A3" s="447" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="438"/>
-      <c r="C3" s="438"/>
-      <c r="D3" s="438"/>
-      <c r="E3" s="438"/>
-      <c r="F3" s="438"/>
-      <c r="G3" s="438"/>
+      <c r="B3" s="447"/>
+      <c r="C3" s="447"/>
+      <c r="D3" s="447"/>
+      <c r="E3" s="447"/>
+      <c r="F3" s="447"/>
+      <c r="G3" s="447"/>
       <c r="H3" s="56"/>
       <c r="I3" s="135"/>
       <c r="J3" s="135"/>
@@ -13783,12 +13789,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="125"/>
-      <c r="B35" s="433" t="s">
+      <c r="B35" s="442" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="433"/>
-      <c r="D35" s="433"/>
-      <c r="E35" s="433"/>
+      <c r="C35" s="442"/>
+      <c r="D35" s="442"/>
+      <c r="E35" s="442"/>
       <c r="F35" s="126"/>
       <c r="G35" s="131"/>
       <c r="H35" s="131"/>
@@ -14649,10 +14655,10 @@
       <c r="D43" s="198"/>
       <c r="E43" s="168"/>
       <c r="F43" s="126"/>
-      <c r="G43" s="434"/>
-      <c r="H43" s="434"/>
-      <c r="I43" s="434"/>
-      <c r="J43" s="434"/>
+      <c r="G43" s="443"/>
+      <c r="H43" s="443"/>
+      <c r="I43" s="443"/>
+      <c r="J43" s="443"/>
       <c r="K43" s="56"/>
       <c r="L43" s="135"/>
       <c r="M43" s="56"/>
@@ -22770,11 +22776,11 @@
       <c r="CS118" s="130"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="431" t="s">
+      <c r="A119" s="440" t="s">
         <v>25</v>
       </c>
-      <c r="B119" s="432"/>
-      <c r="C119" s="435"/>
+      <c r="B119" s="441"/>
+      <c r="C119" s="444"/>
       <c r="D119" s="202">
         <f>SUM(D37:D118)</f>
         <v>2782200</v>
@@ -22979,11 +22985,11 @@
       <c r="CS120" s="130"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="431" t="s">
+      <c r="A121" s="440" t="s">
         <v>26</v>
       </c>
-      <c r="B121" s="432"/>
-      <c r="C121" s="432"/>
+      <c r="B121" s="441"/>
+      <c r="C121" s="441"/>
       <c r="D121" s="202">
         <f>D119+M121</f>
         <v>2782200</v>
@@ -34233,38 +34239,38 @@
   <sheetData>
     <row r="1" spans="6:10" ht="15.75" thickBot="1"/>
     <row r="2" spans="6:10" ht="25.5">
-      <c r="F2" s="439" t="s">
+      <c r="F2" s="448" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="440"/>
-      <c r="H2" s="440"/>
-      <c r="I2" s="440"/>
-      <c r="J2" s="441"/>
+      <c r="G2" s="449"/>
+      <c r="H2" s="449"/>
+      <c r="I2" s="449"/>
+      <c r="J2" s="450"/>
     </row>
     <row r="3" spans="6:10" ht="18">
-      <c r="F3" s="442" t="s">
+      <c r="F3" s="451" t="s">
         <v>232</v>
       </c>
-      <c r="G3" s="443"/>
-      <c r="H3" s="443"/>
-      <c r="I3" s="443"/>
-      <c r="J3" s="444"/>
+      <c r="G3" s="452"/>
+      <c r="H3" s="452"/>
+      <c r="I3" s="452"/>
+      <c r="J3" s="453"/>
     </row>
     <row r="4" spans="6:10" ht="18">
-      <c r="F4" s="442" t="s">
+      <c r="F4" s="451" t="s">
         <v>233</v>
       </c>
-      <c r="G4" s="443"/>
-      <c r="H4" s="443"/>
-      <c r="I4" s="443"/>
-      <c r="J4" s="444"/>
+      <c r="G4" s="452"/>
+      <c r="H4" s="452"/>
+      <c r="I4" s="452"/>
+      <c r="J4" s="453"/>
     </row>
     <row r="5" spans="6:10" ht="4.5" customHeight="1">
-      <c r="F5" s="445"/>
-      <c r="G5" s="446"/>
-      <c r="H5" s="446"/>
-      <c r="I5" s="446"/>
-      <c r="J5" s="447"/>
+      <c r="F5" s="454"/>
+      <c r="G5" s="455"/>
+      <c r="H5" s="455"/>
+      <c r="I5" s="455"/>
+      <c r="J5" s="456"/>
     </row>
     <row r="6" spans="6:10" ht="15.75">
       <c r="F6" s="406" t="s">
@@ -34639,11 +34645,11 @@
       </c>
     </row>
     <row r="28" spans="6:10" ht="18.75" thickBot="1">
-      <c r="F28" s="448" t="s">
+      <c r="F28" s="457" t="s">
         <v>234</v>
       </c>
-      <c r="G28" s="449"/>
-      <c r="H28" s="450"/>
+      <c r="G28" s="458"/>
+      <c r="H28" s="459"/>
       <c r="I28" s="404">
         <f>SUM(I7:I27)</f>
         <v>2782200</v>
@@ -34697,28 +34703,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="464" t="s">
+      <c r="A1" s="463" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="465"/>
-      <c r="C1" s="465"/>
-      <c r="D1" s="465"/>
-      <c r="E1" s="466"/>
+      <c r="B1" s="464"/>
+      <c r="C1" s="464"/>
+      <c r="D1" s="464"/>
+      <c r="E1" s="465"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="463"/>
-      <c r="J1" s="463"/>
-      <c r="K1" s="463"/>
+      <c r="I1" s="462"/>
+      <c r="J1" s="462"/>
+      <c r="K1" s="462"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="473" t="s">
+      <c r="A2" s="472" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="474"/>
-      <c r="C2" s="474"/>
-      <c r="D2" s="474"/>
-      <c r="E2" s="475"/>
+      <c r="B2" s="473"/>
+      <c r="C2" s="473"/>
+      <c r="D2" s="473"/>
+      <c r="E2" s="474"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -34739,13 +34745,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="467" t="s">
+      <c r="A3" s="466" t="s">
         <v>225</v>
       </c>
-      <c r="B3" s="468"/>
-      <c r="C3" s="468"/>
-      <c r="D3" s="468"/>
-      <c r="E3" s="469"/>
+      <c r="B3" s="467"/>
+      <c r="C3" s="467"/>
+      <c r="D3" s="467"/>
+      <c r="E3" s="468"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -34772,13 +34778,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="476" t="s">
+      <c r="A4" s="475" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="477"/>
-      <c r="C4" s="477"/>
-      <c r="D4" s="477"/>
-      <c r="E4" s="478"/>
+      <c r="B4" s="476"/>
+      <c r="C4" s="476"/>
+      <c r="D4" s="476"/>
+      <c r="E4" s="477"/>
       <c r="F4" s="5"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
@@ -35269,11 +35275,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="302"/>
-      <c r="I17" s="454" t="s">
+      <c r="I17" s="460" t="s">
         <v>159</v>
       </c>
-      <c r="J17" s="454"/>
-      <c r="K17" s="454"/>
+      <c r="J17" s="460"/>
+      <c r="K17" s="460"/>
       <c r="L17" s="347">
         <f>SUM(L3:L16)</f>
         <v>311650</v>
@@ -35296,11 +35302,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="302"/>
-      <c r="I18" s="479" t="s">
+      <c r="I18" s="478" t="s">
         <v>106</v>
       </c>
-      <c r="J18" s="479"/>
-      <c r="K18" s="479"/>
+      <c r="J18" s="478"/>
+      <c r="K18" s="478"/>
       <c r="L18" s="31">
         <v>54000</v>
       </c>
@@ -35312,21 +35318,21 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="470" t="s">
+      <c r="A19" s="469" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="471"/>
-      <c r="C19" s="471"/>
-      <c r="D19" s="471"/>
-      <c r="E19" s="472"/>
+      <c r="B19" s="470"/>
+      <c r="C19" s="470"/>
+      <c r="D19" s="470"/>
+      <c r="E19" s="471"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="462" t="s">
+      <c r="I19" s="461" t="s">
         <v>217</v>
       </c>
-      <c r="J19" s="462"/>
-      <c r="K19" s="462"/>
+      <c r="J19" s="461"/>
+      <c r="K19" s="461"/>
       <c r="L19" s="31">
         <v>20000</v>
       </c>
@@ -35354,11 +35360,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="461" t="s">
+      <c r="I20" s="479" t="s">
         <v>164</v>
       </c>
-      <c r="J20" s="461"/>
-      <c r="K20" s="461"/>
+      <c r="J20" s="479"/>
+      <c r="K20" s="479"/>
       <c r="L20" s="31">
         <v>19500</v>
       </c>
@@ -35443,11 +35449,11 @@
       <c r="E23" s="261">
         <v>54230</v>
       </c>
-      <c r="I23" s="454" t="s">
+      <c r="I23" s="460" t="s">
         <v>223</v>
       </c>
-      <c r="J23" s="454"/>
-      <c r="K23" s="454"/>
+      <c r="J23" s="460"/>
+      <c r="K23" s="460"/>
       <c r="L23" s="347">
         <f>L17-L18-L19-L20-L21-L22</f>
         <v>168150</v>
@@ -35517,13 +35523,13 @@
       <c r="E26" s="261">
         <v>30180</v>
       </c>
-      <c r="I26" s="455" t="s">
+      <c r="I26" s="486" t="s">
         <v>196</v>
       </c>
-      <c r="J26" s="456"/>
-      <c r="K26" s="456"/>
-      <c r="L26" s="456"/>
-      <c r="M26" s="457"/>
+      <c r="J26" s="487"/>
+      <c r="K26" s="487"/>
+      <c r="L26" s="487"/>
+      <c r="M26" s="488"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -35544,11 +35550,11 @@
       <c r="E27" s="330">
         <v>17000</v>
       </c>
-      <c r="I27" s="458" t="s">
+      <c r="I27" s="489" t="s">
         <v>148</v>
       </c>
-      <c r="J27" s="458"/>
-      <c r="K27" s="459"/>
+      <c r="J27" s="489"/>
+      <c r="K27" s="490"/>
       <c r="L27" s="372">
         <v>213170</v>
       </c>
@@ -35573,11 +35579,11 @@
       <c r="E28" s="268">
         <v>150770</v>
       </c>
-      <c r="I28" s="460" t="s">
+      <c r="I28" s="491" t="s">
         <v>197</v>
       </c>
-      <c r="J28" s="461"/>
-      <c r="K28" s="461"/>
+      <c r="J28" s="479"/>
+      <c r="K28" s="479"/>
       <c r="L28" s="371">
         <v>79500</v>
       </c>
@@ -35604,11 +35610,11 @@
       <c r="E29" s="268">
         <v>50000</v>
       </c>
-      <c r="I29" s="460" t="s">
+      <c r="I29" s="491" t="s">
         <v>197</v>
       </c>
-      <c r="J29" s="461"/>
-      <c r="K29" s="461"/>
+      <c r="J29" s="479"/>
+      <c r="K29" s="479"/>
       <c r="L29" s="374">
         <v>47500</v>
       </c>
@@ -35631,11 +35637,11 @@
       <c r="C30" s="344"/>
       <c r="D30" s="345"/>
       <c r="E30" s="346"/>
-      <c r="I30" s="460" t="s">
+      <c r="I30" s="491" t="s">
         <v>197</v>
       </c>
-      <c r="J30" s="461"/>
-      <c r="K30" s="461"/>
+      <c r="J30" s="479"/>
+      <c r="K30" s="479"/>
       <c r="L30" s="375">
         <v>50000</v>
       </c>
@@ -35653,9 +35659,9 @@
       <c r="B31" s="33"/>
       <c r="C31" s="5"/>
       <c r="D31" s="32"/>
-      <c r="I31" s="451"/>
-      <c r="J31" s="452"/>
-      <c r="K31" s="453"/>
+      <c r="I31" s="483"/>
+      <c r="J31" s="484"/>
+      <c r="K31" s="485"/>
       <c r="L31" s="371"/>
       <c r="M31" s="371"/>
       <c r="N31" s="7"/>
@@ -35665,11 +35671,11 @@
       <c r="R31" s="7"/>
     </row>
     <row r="32" spans="1:18" ht="15.75">
-      <c r="I32" s="454" t="s">
+      <c r="I32" s="460" t="s">
         <v>107</v>
       </c>
-      <c r="J32" s="454"/>
-      <c r="K32" s="454"/>
+      <c r="J32" s="460"/>
+      <c r="K32" s="460"/>
       <c r="L32" s="370">
         <f>L27-L28-L29-L30-L31</f>
         <v>36170</v>
@@ -38399,6 +38405,13 @@
     <sortCondition ref="D20"/>
   </sortState>
   <mergeCells count="20">
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="I1:K1"/>
@@ -38412,13 +38425,6 @@
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.94488188976377963" bottom="0" header="0" footer="0"/>
@@ -38431,8 +38437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D36" sqref="A3:D36"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -38452,10 +38458,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" thickBot="1">
-      <c r="A1" s="483" t="s">
+      <c r="A1" s="492" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="484"/>
+      <c r="B1" s="493"/>
       <c r="C1" s="270">
         <f>G10+C73</f>
         <v>99915</v>
@@ -38501,11 +38507,11 @@
       <c r="H3" s="384" t="s">
         <v>184</v>
       </c>
-      <c r="J3" s="487" t="s">
+      <c r="J3" s="496" t="s">
         <v>212</v>
       </c>
-      <c r="K3" s="487"/>
-      <c r="L3" s="487"/>
+      <c r="K3" s="496"/>
+      <c r="L3" s="496"/>
     </row>
     <row r="4" spans="1:12" ht="15">
       <c r="A4" s="24" t="s">
@@ -38833,11 +38839,11 @@
         <v>0</v>
       </c>
       <c r="E15" s="61"/>
-      <c r="F15" s="490" t="s">
+      <c r="F15" s="499" t="s">
         <v>221</v>
       </c>
-      <c r="G15" s="490"/>
-      <c r="H15" s="490"/>
+      <c r="G15" s="499"/>
+      <c r="H15" s="499"/>
       <c r="J15" s="353" t="s">
         <v>166</v>
       </c>
@@ -38895,9 +38901,15 @@
         <v>0</v>
       </c>
       <c r="E17" s="219"/>
-      <c r="F17" s="397"/>
-      <c r="G17" s="397"/>
-      <c r="H17" s="397"/>
+      <c r="F17" s="397" t="s">
+        <v>251</v>
+      </c>
+      <c r="G17" s="397">
+        <v>16700</v>
+      </c>
+      <c r="H17" s="397" t="s">
+        <v>250</v>
+      </c>
       <c r="J17" s="353" t="s">
         <v>144</v>
       </c>
@@ -39044,10 +39056,10 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A23" s="488" t="s">
+      <c r="A23" s="497" t="s">
         <v>213</v>
       </c>
-      <c r="B23" s="489"/>
+      <c r="B23" s="498"/>
       <c r="C23" s="387">
         <f>SUM(C4:C22)</f>
         <v>64900</v>
@@ -39307,7 +39319,7 @@
       </c>
       <c r="G37" s="327">
         <f>SUM(G16:G36)</f>
-        <v>51600</v>
+        <v>68300</v>
       </c>
       <c r="H37" s="327"/>
     </row>
@@ -39557,10 +39569,10 @@
       <c r="E72" s="322"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="485" t="s">
+      <c r="A73" s="494" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="486"/>
+      <c r="B73" s="495"/>
       <c r="C73" s="300">
         <f>SUM(C25:C72)</f>
         <v>37350</v>
@@ -39585,7 +39597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
@@ -39597,26 +39609,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
-      <c r="B1" s="491"/>
-      <c r="C1" s="491"/>
-      <c r="D1" s="491"/>
+      <c r="B1" s="506"/>
+      <c r="C1" s="506"/>
+      <c r="D1" s="506"/>
     </row>
     <row r="2" spans="2:4">
-      <c r="B2" s="491"/>
-      <c r="C2" s="491"/>
-      <c r="D2" s="491"/>
+      <c r="B2" s="506"/>
+      <c r="C2" s="506"/>
+      <c r="D2" s="506"/>
     </row>
     <row r="3" spans="2:4" ht="15" customHeight="1">
-      <c r="B3" s="492" t="s">
+      <c r="B3" s="509" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="492"/>
-      <c r="D3" s="492"/>
+      <c r="C3" s="509"/>
+      <c r="D3" s="509"/>
     </row>
     <row r="4" spans="2:4" ht="15" customHeight="1">
-      <c r="B4" s="493"/>
-      <c r="C4" s="493"/>
-      <c r="D4" s="493"/>
+      <c r="B4" s="510"/>
+      <c r="C4" s="510"/>
+      <c r="D4" s="510"/>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="249" t="s">
@@ -39916,21 +39928,21 @@
       </c>
     </row>
     <row r="32" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B32" s="495" t="s">
+      <c r="B32" s="507" t="s">
         <v>238</v>
       </c>
-      <c r="C32" s="496"/>
-      <c r="D32" s="497">
+      <c r="C32" s="508"/>
+      <c r="D32" s="413">
         <f>SUM(D6:D31)</f>
         <v>100000</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="15">
-      <c r="B34" s="500"/>
-      <c r="C34" s="500" t="s">
+      <c r="B34" s="416"/>
+      <c r="C34" s="416" t="s">
         <v>246</v>
       </c>
-      <c r="D34" s="500"/>
+      <c r="D34" s="416"/>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="411" t="s">
@@ -39944,118 +39956,118 @@
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="494" t="s">
+      <c r="B36" s="412" t="s">
         <v>241</v>
       </c>
-      <c r="C36" s="494" t="s">
+      <c r="C36" s="412" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="494">
+      <c r="D36" s="412">
         <v>15000</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="494" t="s">
+      <c r="B37" s="412" t="s">
         <v>241</v>
       </c>
-      <c r="C37" s="494" t="s">
+      <c r="C37" s="412" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="494">
+      <c r="D37" s="412">
         <v>27700</v>
       </c>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="494" t="s">
+      <c r="B38" s="412" t="s">
         <v>242</v>
       </c>
-      <c r="C38" s="494" t="s">
+      <c r="C38" s="412" t="s">
         <v>144</v>
       </c>
-      <c r="D38" s="494">
+      <c r="D38" s="412">
         <v>34500</v>
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="494" t="s">
+      <c r="B39" s="412" t="s">
         <v>242</v>
       </c>
-      <c r="C39" s="494" t="s">
+      <c r="C39" s="412" t="s">
         <v>145</v>
       </c>
-      <c r="D39" s="494">
+      <c r="D39" s="412">
         <v>17600</v>
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="494" t="s">
+      <c r="B40" s="412" t="s">
         <v>243</v>
       </c>
-      <c r="C40" s="494" t="s">
+      <c r="C40" s="412" t="s">
         <v>145</v>
       </c>
-      <c r="D40" s="494">
+      <c r="D40" s="412">
         <v>6000</v>
       </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="494" t="s">
+      <c r="B41" s="412" t="s">
         <v>244</v>
       </c>
-      <c r="C41" s="494" t="s">
+      <c r="C41" s="412" t="s">
         <v>144</v>
       </c>
-      <c r="D41" s="494">
+      <c r="D41" s="412">
         <v>13600</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="13.5" thickBot="1">
-      <c r="B42" s="499" t="s">
+      <c r="B42" s="415" t="s">
         <v>245</v>
       </c>
-      <c r="C42" s="498" t="s">
+      <c r="C42" s="414" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="498">
+      <c r="D42" s="414">
         <v>12000</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="21" thickBot="1">
-      <c r="B43" s="501" t="s">
+      <c r="B43" s="511" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="502"/>
-      <c r="D43" s="503">
+      <c r="C43" s="512"/>
+      <c r="D43" s="417">
         <f>SUM(D35:D42)</f>
         <v>142900</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="13.5" thickBot="1"/>
     <row r="46" spans="2:4" ht="27" thickBot="1">
-      <c r="B46" s="504" t="s">
+      <c r="B46" s="500" t="s">
         <v>247</v>
       </c>
-      <c r="C46" s="505"/>
-      <c r="D46" s="506">
+      <c r="C46" s="501"/>
+      <c r="D46" s="418">
         <f>D32+D43</f>
         <v>242900</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="27" customHeight="1" thickBot="1">
-      <c r="B47" s="507" t="s">
+      <c r="B47" s="504" t="s">
         <v>248</v>
       </c>
-      <c r="C47" s="508"/>
-      <c r="D47" s="509">
+      <c r="C47" s="505"/>
+      <c r="D47" s="419">
         <v>223200</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="26.25" thickBot="1">
-      <c r="B48" s="510" t="s">
+      <c r="B48" s="502" t="s">
         <v>249</v>
       </c>
-      <c r="C48" s="511"/>
-      <c r="D48" s="512">
+      <c r="C48" s="503"/>
+      <c r="D48" s="420">
         <f>D46-D47</f>
         <v>19700</v>
       </c>

--- a/2022/SAMSUNG/JUNE/30.06.2022/SAMSUNG Bank Statement June-2022.xlsx
+++ b/2022/SAMSUNG/JUNE/30.06.2022/SAMSUNG Bank Statement June-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -3562,45 +3562,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3667,9 +3667,39 @@
     <xf numFmtId="0" fontId="40" fillId="42" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3724,9 +3754,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3734,33 +3761,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6706,9 +6706,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6728,67 +6728,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="429" t="s">
+      <c r="A1" s="427" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="429"/>
-      <c r="C1" s="429"/>
-      <c r="D1" s="429"/>
-      <c r="E1" s="429"/>
-      <c r="F1" s="429"/>
-      <c r="G1" s="429"/>
-      <c r="H1" s="429"/>
-      <c r="I1" s="429"/>
-      <c r="J1" s="429"/>
-      <c r="K1" s="429"/>
-      <c r="L1" s="429"/>
-      <c r="M1" s="429"/>
-      <c r="N1" s="429"/>
-      <c r="O1" s="429"/>
-      <c r="P1" s="429"/>
-      <c r="Q1" s="429"/>
+      <c r="B1" s="427"/>
+      <c r="C1" s="427"/>
+      <c r="D1" s="427"/>
+      <c r="E1" s="427"/>
+      <c r="F1" s="427"/>
+      <c r="G1" s="427"/>
+      <c r="H1" s="427"/>
+      <c r="I1" s="427"/>
+      <c r="J1" s="427"/>
+      <c r="K1" s="427"/>
+      <c r="L1" s="427"/>
+      <c r="M1" s="427"/>
+      <c r="N1" s="427"/>
+      <c r="O1" s="427"/>
+      <c r="P1" s="427"/>
+      <c r="Q1" s="427"/>
     </row>
     <row r="2" spans="1:24" s="61" customFormat="1" ht="18">
-      <c r="A2" s="430" t="s">
+      <c r="A2" s="428" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="430"/>
-      <c r="C2" s="430"/>
-      <c r="D2" s="430"/>
-      <c r="E2" s="430"/>
-      <c r="F2" s="430"/>
-      <c r="G2" s="430"/>
-      <c r="H2" s="430"/>
-      <c r="I2" s="430"/>
-      <c r="J2" s="430"/>
-      <c r="K2" s="430"/>
-      <c r="L2" s="430"/>
-      <c r="M2" s="430"/>
-      <c r="N2" s="430"/>
-      <c r="O2" s="430"/>
-      <c r="P2" s="430"/>
-      <c r="Q2" s="430"/>
+      <c r="B2" s="428"/>
+      <c r="C2" s="428"/>
+      <c r="D2" s="428"/>
+      <c r="E2" s="428"/>
+      <c r="F2" s="428"/>
+      <c r="G2" s="428"/>
+      <c r="H2" s="428"/>
+      <c r="I2" s="428"/>
+      <c r="J2" s="428"/>
+      <c r="K2" s="428"/>
+      <c r="L2" s="428"/>
+      <c r="M2" s="428"/>
+      <c r="N2" s="428"/>
+      <c r="O2" s="428"/>
+      <c r="P2" s="428"/>
+      <c r="Q2" s="428"/>
     </row>
     <row r="3" spans="1:24" s="62" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="431" t="s">
+      <c r="A3" s="429" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="432"/>
-      <c r="C3" s="432"/>
-      <c r="D3" s="432"/>
-      <c r="E3" s="432"/>
-      <c r="F3" s="432"/>
-      <c r="G3" s="432"/>
-      <c r="H3" s="432"/>
-      <c r="I3" s="432"/>
-      <c r="J3" s="432"/>
-      <c r="K3" s="432"/>
-      <c r="L3" s="432"/>
-      <c r="M3" s="432"/>
-      <c r="N3" s="432"/>
-      <c r="O3" s="432"/>
-      <c r="P3" s="432"/>
-      <c r="Q3" s="433"/>
+      <c r="B3" s="430"/>
+      <c r="C3" s="430"/>
+      <c r="D3" s="430"/>
+      <c r="E3" s="430"/>
+      <c r="F3" s="430"/>
+      <c r="G3" s="430"/>
+      <c r="H3" s="430"/>
+      <c r="I3" s="430"/>
+      <c r="J3" s="430"/>
+      <c r="K3" s="430"/>
+      <c r="L3" s="430"/>
+      <c r="M3" s="430"/>
+      <c r="N3" s="430"/>
+      <c r="O3" s="430"/>
+      <c r="P3" s="430"/>
+      <c r="Q3" s="431"/>
       <c r="S3" s="46"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6797,49 +6797,49 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="63" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="434" t="s">
+      <c r="A4" s="432" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="436" t="s">
+      <c r="B4" s="434" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="425" t="s">
+      <c r="C4" s="436" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="425" t="s">
+      <c r="D4" s="436" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="425" t="s">
+      <c r="E4" s="436" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="425" t="s">
+      <c r="F4" s="436" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="425" t="s">
+      <c r="G4" s="436" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="425" t="s">
+      <c r="H4" s="436" t="s">
         <v>187</v>
       </c>
-      <c r="I4" s="425" t="s">
+      <c r="I4" s="436" t="s">
         <v>186</v>
       </c>
-      <c r="J4" s="425" t="s">
+      <c r="J4" s="436" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="425" t="s">
+      <c r="K4" s="436" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="425" t="s">
+      <c r="L4" s="436" t="s">
         <v>114</v>
       </c>
-      <c r="M4" s="425" t="s">
+      <c r="M4" s="436" t="s">
         <v>207</v>
       </c>
-      <c r="N4" s="425" t="s">
+      <c r="N4" s="436" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="427" t="s">
+      <c r="O4" s="425" t="s">
         <v>124</v>
       </c>
       <c r="P4" s="438" t="s">
@@ -6855,21 +6855,21 @@
       <c r="W4" s="65"/>
     </row>
     <row r="5" spans="1:24" s="63" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="435"/>
-      <c r="B5" s="437"/>
-      <c r="C5" s="426"/>
-      <c r="D5" s="426"/>
-      <c r="E5" s="426"/>
-      <c r="F5" s="426"/>
-      <c r="G5" s="426"/>
-      <c r="H5" s="426"/>
-      <c r="I5" s="426"/>
-      <c r="J5" s="426"/>
-      <c r="K5" s="426"/>
-      <c r="L5" s="426"/>
-      <c r="M5" s="426"/>
-      <c r="N5" s="426"/>
-      <c r="O5" s="428"/>
+      <c r="A5" s="433"/>
+      <c r="B5" s="435"/>
+      <c r="C5" s="437"/>
+      <c r="D5" s="437"/>
+      <c r="E5" s="437"/>
+      <c r="F5" s="437"/>
+      <c r="G5" s="437"/>
+      <c r="H5" s="437"/>
+      <c r="I5" s="437"/>
+      <c r="J5" s="437"/>
+      <c r="K5" s="437"/>
+      <c r="L5" s="437"/>
+      <c r="M5" s="437"/>
+      <c r="N5" s="437"/>
+      <c r="O5" s="426"/>
       <c r="P5" s="439"/>
       <c r="Q5" s="119" t="s">
         <v>36</v>
@@ -10034,6 +10034,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -10050,9 +10053,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -34703,28 +34703,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="463" t="s">
+      <c r="A1" s="473" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="464"/>
-      <c r="C1" s="464"/>
-      <c r="D1" s="464"/>
-      <c r="E1" s="465"/>
+      <c r="B1" s="474"/>
+      <c r="C1" s="474"/>
+      <c r="D1" s="474"/>
+      <c r="E1" s="475"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="462"/>
-      <c r="J1" s="462"/>
-      <c r="K1" s="462"/>
+      <c r="I1" s="472"/>
+      <c r="J1" s="472"/>
+      <c r="K1" s="472"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="472" t="s">
+      <c r="A2" s="482" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="473"/>
-      <c r="C2" s="473"/>
-      <c r="D2" s="473"/>
-      <c r="E2" s="474"/>
+      <c r="B2" s="483"/>
+      <c r="C2" s="483"/>
+      <c r="D2" s="483"/>
+      <c r="E2" s="484"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -34745,13 +34745,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="466" t="s">
+      <c r="A3" s="476" t="s">
         <v>225</v>
       </c>
-      <c r="B3" s="467"/>
-      <c r="C3" s="467"/>
-      <c r="D3" s="467"/>
-      <c r="E3" s="468"/>
+      <c r="B3" s="477"/>
+      <c r="C3" s="477"/>
+      <c r="D3" s="477"/>
+      <c r="E3" s="478"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -34778,13 +34778,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="475" t="s">
+      <c r="A4" s="485" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="476"/>
-      <c r="C4" s="476"/>
-      <c r="D4" s="476"/>
-      <c r="E4" s="477"/>
+      <c r="B4" s="486"/>
+      <c r="C4" s="486"/>
+      <c r="D4" s="486"/>
+      <c r="E4" s="487"/>
       <c r="F4" s="5"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
@@ -35275,11 +35275,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="302"/>
-      <c r="I17" s="460" t="s">
+      <c r="I17" s="463" t="s">
         <v>159</v>
       </c>
-      <c r="J17" s="460"/>
-      <c r="K17" s="460"/>
+      <c r="J17" s="463"/>
+      <c r="K17" s="463"/>
       <c r="L17" s="347">
         <f>SUM(L3:L16)</f>
         <v>311650</v>
@@ -35302,11 +35302,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="302"/>
-      <c r="I18" s="478" t="s">
+      <c r="I18" s="488" t="s">
         <v>106</v>
       </c>
-      <c r="J18" s="478"/>
-      <c r="K18" s="478"/>
+      <c r="J18" s="488"/>
+      <c r="K18" s="488"/>
       <c r="L18" s="31">
         <v>54000</v>
       </c>
@@ -35318,21 +35318,21 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="469" t="s">
+      <c r="A19" s="479" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="470"/>
-      <c r="C19" s="470"/>
-      <c r="D19" s="470"/>
-      <c r="E19" s="471"/>
+      <c r="B19" s="480"/>
+      <c r="C19" s="480"/>
+      <c r="D19" s="480"/>
+      <c r="E19" s="481"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="461" t="s">
+      <c r="I19" s="471" t="s">
         <v>217</v>
       </c>
-      <c r="J19" s="461"/>
-      <c r="K19" s="461"/>
+      <c r="J19" s="471"/>
+      <c r="K19" s="471"/>
       <c r="L19" s="31">
         <v>20000</v>
       </c>
@@ -35360,11 +35360,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="479" t="s">
+      <c r="I20" s="470" t="s">
         <v>164</v>
       </c>
-      <c r="J20" s="479"/>
-      <c r="K20" s="479"/>
+      <c r="J20" s="470"/>
+      <c r="K20" s="470"/>
       <c r="L20" s="31">
         <v>19500</v>
       </c>
@@ -35391,11 +35391,11 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="480" t="s">
+      <c r="I21" s="489" t="s">
         <v>216</v>
       </c>
-      <c r="J21" s="481"/>
-      <c r="K21" s="482"/>
+      <c r="J21" s="490"/>
+      <c r="K21" s="491"/>
       <c r="L21" s="31">
         <v>30000</v>
       </c>
@@ -35420,11 +35420,11 @@
       <c r="E22" s="261">
         <v>344190</v>
       </c>
-      <c r="I22" s="480" t="s">
+      <c r="I22" s="489" t="s">
         <v>222</v>
       </c>
-      <c r="J22" s="481"/>
-      <c r="K22" s="482"/>
+      <c r="J22" s="490"/>
+      <c r="K22" s="491"/>
       <c r="L22" s="396">
         <v>20000</v>
       </c>
@@ -35449,11 +35449,11 @@
       <c r="E23" s="261">
         <v>54230</v>
       </c>
-      <c r="I23" s="460" t="s">
+      <c r="I23" s="463" t="s">
         <v>223</v>
       </c>
-      <c r="J23" s="460"/>
-      <c r="K23" s="460"/>
+      <c r="J23" s="463"/>
+      <c r="K23" s="463"/>
       <c r="L23" s="347">
         <f>L17-L18-L19-L20-L21-L22</f>
         <v>168150</v>
@@ -35523,13 +35523,13 @@
       <c r="E26" s="261">
         <v>30180</v>
       </c>
-      <c r="I26" s="486" t="s">
+      <c r="I26" s="464" t="s">
         <v>196</v>
       </c>
-      <c r="J26" s="487"/>
-      <c r="K26" s="487"/>
-      <c r="L26" s="487"/>
-      <c r="M26" s="488"/>
+      <c r="J26" s="465"/>
+      <c r="K26" s="465"/>
+      <c r="L26" s="465"/>
+      <c r="M26" s="466"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -35550,11 +35550,11 @@
       <c r="E27" s="330">
         <v>17000</v>
       </c>
-      <c r="I27" s="489" t="s">
+      <c r="I27" s="467" t="s">
         <v>148</v>
       </c>
-      <c r="J27" s="489"/>
-      <c r="K27" s="490"/>
+      <c r="J27" s="467"/>
+      <c r="K27" s="468"/>
       <c r="L27" s="372">
         <v>213170</v>
       </c>
@@ -35579,11 +35579,11 @@
       <c r="E28" s="268">
         <v>150770</v>
       </c>
-      <c r="I28" s="491" t="s">
+      <c r="I28" s="469" t="s">
         <v>197</v>
       </c>
-      <c r="J28" s="479"/>
-      <c r="K28" s="479"/>
+      <c r="J28" s="470"/>
+      <c r="K28" s="470"/>
       <c r="L28" s="371">
         <v>79500</v>
       </c>
@@ -35610,11 +35610,11 @@
       <c r="E29" s="268">
         <v>50000</v>
       </c>
-      <c r="I29" s="491" t="s">
+      <c r="I29" s="469" t="s">
         <v>197</v>
       </c>
-      <c r="J29" s="479"/>
-      <c r="K29" s="479"/>
+      <c r="J29" s="470"/>
+      <c r="K29" s="470"/>
       <c r="L29" s="374">
         <v>47500</v>
       </c>
@@ -35637,11 +35637,11 @@
       <c r="C30" s="344"/>
       <c r="D30" s="345"/>
       <c r="E30" s="346"/>
-      <c r="I30" s="491" t="s">
+      <c r="I30" s="469" t="s">
         <v>197</v>
       </c>
-      <c r="J30" s="479"/>
-      <c r="K30" s="479"/>
+      <c r="J30" s="470"/>
+      <c r="K30" s="470"/>
       <c r="L30" s="375">
         <v>50000</v>
       </c>
@@ -35659,9 +35659,9 @@
       <c r="B31" s="33"/>
       <c r="C31" s="5"/>
       <c r="D31" s="32"/>
-      <c r="I31" s="483"/>
-      <c r="J31" s="484"/>
-      <c r="K31" s="485"/>
+      <c r="I31" s="460"/>
+      <c r="J31" s="461"/>
+      <c r="K31" s="462"/>
       <c r="L31" s="371"/>
       <c r="M31" s="371"/>
       <c r="N31" s="7"/>
@@ -35671,11 +35671,11 @@
       <c r="R31" s="7"/>
     </row>
     <row r="32" spans="1:18" ht="15.75">
-      <c r="I32" s="460" t="s">
+      <c r="I32" s="463" t="s">
         <v>107</v>
       </c>
-      <c r="J32" s="460"/>
-      <c r="K32" s="460"/>
+      <c r="J32" s="463"/>
+      <c r="K32" s="463"/>
       <c r="L32" s="370">
         <f>L27-L28-L29-L30-L31</f>
         <v>36170</v>
@@ -38405,13 +38405,6 @@
     <sortCondition ref="D20"/>
   </sortState>
   <mergeCells count="20">
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="I1:K1"/>
@@ -38425,6 +38418,13 @@
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.94488188976377963" bottom="0" header="0" footer="0"/>
@@ -38437,7 +38437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
